--- a/data/2024/ssg/6,15_DE-12.xlsx
+++ b/data/2024/ssg/6,15_DE-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="691">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -352,1717 +352,1723 @@
     <t>1.1894 - 12.1905; 13.1906(1907) - 15.1908(1910); 16.1922; 17.1910(1911) - 25.1927(1928); [N.F.] 1=26.1947; 2=27.1949; 3.1950 - 55.1994/98; 55=80.1998,2; 56=81.1995(1996) - 74=99.2015 ; 100 (2016)-</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1a;3/10;7;9;15;19;20;25;385;F 36</t>
+  </si>
+  <si>
+    <t>5800-2</t>
+  </si>
+  <si>
+    <t>Byzantinische Zeitschrift</t>
+  </si>
+  <si>
+    <t>de Gruyter</t>
+  </si>
+  <si>
+    <t>Berlin;New York, NY</t>
+  </si>
+  <si>
+    <t>0007-7704</t>
+  </si>
+  <si>
+    <t>870;880;930</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;1;6,15;6,23;0</t>
+  </si>
+  <si>
+    <t>1211389-X</t>
+  </si>
+  <si>
+    <t>1.1892 - 22.1913; 23.1914/19(1920) - 42.1943/49; 43.1950 -</t>
+  </si>
+  <si>
+    <t>3;18;19;20;23;F 42;46;109;361;384;385;Tr 2;700;Mch 1;Kn 28;F 36</t>
+  </si>
+  <si>
+    <t>759754-X</t>
+  </si>
+  <si>
+    <t>Byzantion Nea Hellás</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>Casilla, Santiago</t>
+  </si>
+  <si>
+    <t>0716-2138</t>
+  </si>
+  <si>
+    <t>6,15;1;6,23</t>
+  </si>
+  <si>
+    <t>1.1970 -</t>
+  </si>
+  <si>
+    <t>6294-7</t>
+  </si>
+  <si>
+    <t>Corso di Cultura sull'Arte Ravennate e Bizantina</t>
+  </si>
+  <si>
+    <t>Ed. del Girasole</t>
+  </si>
+  <si>
+    <t>Ravenna</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>6,15;9,10</t>
+  </si>
+  <si>
+    <t>342371-2</t>
+  </si>
+  <si>
+    <t>[2.]1956 - [6.]1959; 7.1960 - 36.1989</t>
+  </si>
+  <si>
+    <t>7459-7</t>
+  </si>
+  <si>
+    <t>Zbornik radova Vizantološkog Instituta</t>
+  </si>
+  <si>
+    <t>Naučno Delo</t>
+  </si>
+  <si>
+    <t>Beograd</t>
+  </si>
+  <si>
+    <t>srp;fre</t>
+  </si>
+  <si>
+    <t>0584-9888</t>
+  </si>
+  <si>
+    <t>1.1952 -</t>
+  </si>
+  <si>
+    <t>4;7;20</t>
+  </si>
+  <si>
+    <t>8141-3</t>
+  </si>
+  <si>
+    <t>Etudes byzantines et post-byzantines</t>
+  </si>
+  <si>
+    <t>Ed. Trinita</t>
+  </si>
+  <si>
+    <t>Iaşi</t>
+  </si>
+  <si>
+    <t>0259-0913</t>
+  </si>
+  <si>
+    <t>6,15;6,23</t>
+  </si>
+  <si>
+    <t>1.1979-7 (2016) ; Nouvelle série, tome 1- = 8 (2019)-</t>
+  </si>
+  <si>
+    <t>1a;19</t>
+  </si>
+  <si>
+    <t>412478-9</t>
+  </si>
+  <si>
+    <t>Krētika chronika</t>
+  </si>
+  <si>
+    <t>Hērakleion</t>
+  </si>
+  <si>
+    <t>gre</t>
+  </si>
+  <si>
+    <t>0454-5206</t>
+  </si>
+  <si>
+    <t>910;940</t>
+  </si>
+  <si>
+    <t>6,12;6,14;6,15</t>
+  </si>
+  <si>
+    <t>1.1947 - 20.1966; 2.Per. 21.1969 - 25.1973; 3.Per. 26.1986 -</t>
+  </si>
+  <si>
+    <t>413429-1</t>
+  </si>
+  <si>
+    <t>d;ra</t>
+  </si>
+  <si>
+    <t>Corpus fontium historiae Byzantinae</t>
+  </si>
+  <si>
+    <t>Verlag der Österreichischen Akademie der Wissenschaften;Dumbarton Oaks Center for Byzantine Studies;de @Gruyter</t>
+  </si>
+  <si>
+    <t>Wien;Washington, D.C.;Berolini;Bostoniae</t>
+  </si>
+  <si>
+    <t>eng;grc</t>
+  </si>
+  <si>
+    <t>0589-8048</t>
+  </si>
+  <si>
+    <t>930;870</t>
+  </si>
+  <si>
+    <t>6,23;6,15</t>
+  </si>
+  <si>
+    <t>1.1967 -</t>
+  </si>
+  <si>
+    <t>414119-2</t>
+  </si>
+  <si>
+    <t>Makedonika &lt;Thessalonikē&gt;</t>
+  </si>
+  <si>
+    <t>Thessalonikē</t>
+  </si>
+  <si>
+    <t>0076-289X</t>
+  </si>
+  <si>
+    <t>9,10;6,15;6,16</t>
+  </si>
+  <si>
+    <t>1.1940 -</t>
+  </si>
+  <si>
+    <t>1a;16</t>
+  </si>
+  <si>
+    <t>27575-X</t>
+  </si>
+  <si>
+    <t>Peloponnēsiaka</t>
+  </si>
+  <si>
+    <t>910;940;914.3;943</t>
+  </si>
+  <si>
+    <t>Parartēma</t>
+  </si>
+  <si>
+    <t>1.1974 -</t>
+  </si>
+  <si>
+    <t>420491-8</t>
+  </si>
+  <si>
+    <t>d;rb</t>
+  </si>
+  <si>
+    <t>Byzantina keimena kai meletai</t>
+  </si>
+  <si>
+    <t>Kentro Byzantinōn Ereunōn</t>
+  </si>
+  <si>
+    <t>grc;gre;eng</t>
+  </si>
+  <si>
+    <t>1106-6180</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>1113500-1</t>
+  </si>
+  <si>
+    <t>Epetēris Hidrymatos Neoellēnikōn Spudōn</t>
+  </si>
+  <si>
+    <t>1.1979/80 - 13.2005/06[?]</t>
+  </si>
+  <si>
+    <t>41714-2</t>
+  </si>
+  <si>
+    <t>Bulletin d'information et de coordination</t>
+  </si>
+  <si>
+    <t>Athènes</t>
+  </si>
+  <si>
+    <t>0571-5857</t>
+  </si>
+  <si>
+    <t>880;940</t>
+  </si>
+  <si>
+    <t>1.1964 - 21.2000/01; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>802568-X</t>
+  </si>
+  <si>
+    <t>Vedute sull'Egitto antico</t>
+  </si>
+  <si>
+    <t>Giappichelli</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>6,11;6,12;6,15;6,21</t>
+  </si>
+  <si>
+    <t>1.1974/79(1981) - 6.1995/96(1997)[?]</t>
+  </si>
+  <si>
+    <t>429988-7</t>
+  </si>
+  <si>
+    <t>Byzantina</t>
+  </si>
+  <si>
+    <t>Gävle</t>
+  </si>
+  <si>
+    <t>1.1972(1973) - 3/4.1974/75(1977)[?]</t>
+  </si>
+  <si>
+    <t>803003-0</t>
+  </si>
+  <si>
+    <t>Horos</t>
+  </si>
+  <si>
+    <t>Typ. Keimena</t>
+  </si>
+  <si>
+    <t>1105-2163</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>6,14;6,15</t>
+  </si>
+  <si>
+    <t>1.1983 - 14/16.2000/03(2003); 17/21.2004/09(2010) -</t>
+  </si>
+  <si>
+    <t>16;29</t>
+  </si>
+  <si>
+    <t>806187-7</t>
+  </si>
+  <si>
+    <t>Byzantium and the north</t>
+  </si>
+  <si>
+    <t>Seura</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>0356-1879;0783-2478</t>
+  </si>
+  <si>
+    <t>2101606-9</t>
+  </si>
+  <si>
+    <t>1.1985 - 10.1999/2000(2000)</t>
+  </si>
+  <si>
+    <t>503457-7</t>
+  </si>
+  <si>
+    <t>Münchener Beiträge zur Papyrusforschung und antiken Rechtsgeschichte</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>0936-3718</t>
+  </si>
+  <si>
+    <t>730;920;930;340</t>
+  </si>
+  <si>
+    <t>6,11;6,12;6,15</t>
+  </si>
+  <si>
+    <t>503449-8</t>
+  </si>
+  <si>
+    <t>H. 4.1922 - 35.1945; 36.1952 - 69.1976; 71.1977 -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>89887-9</t>
+  </si>
+  <si>
+    <t>Bulletin of British Byzantine studies</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>0265-1629</t>
+  </si>
+  <si>
+    <t>1.1975 -</t>
+  </si>
+  <si>
+    <t>91279-7</t>
+  </si>
+  <si>
+    <t>b;ra;ee</t>
+  </si>
+  <si>
+    <t>Varia</t>
+  </si>
+  <si>
+    <t>Habelt</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>ger;eng</t>
+  </si>
+  <si>
+    <t>1.1984 - 7.2000; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1146395-8</t>
+  </si>
+  <si>
+    <t>Studies in ancient art and civilization</t>
+  </si>
+  <si>
+    <t>Inst. Archeologii Uniwersytetu Jagiellońskiego</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>0083-4300</t>
+  </si>
+  <si>
+    <t>6,21;6,12;6,15;7,41</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
+    <t>1153987-2</t>
+  </si>
+  <si>
+    <t>Bulgaria pontica medii aevi</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>lat;eng;fre</t>
+  </si>
+  <si>
+    <t>1.1979(1981) -</t>
+  </si>
+  <si>
+    <t>Association des Amis du Centre d'Histoire et Civilisation de Byzance</t>
+  </si>
+  <si>
+    <t>0751-0594;0577-1471</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>5.1973 -</t>
+  </si>
+  <si>
+    <t>1a;4;5;7;11;16;20;25;30;385</t>
+  </si>
+  <si>
+    <t>1170904-2</t>
+  </si>
+  <si>
+    <t>Ho eranistēs</t>
+  </si>
+  <si>
+    <t>0425-1660</t>
+  </si>
+  <si>
+    <t>050;870</t>
+  </si>
+  <si>
+    <t>1.1963 -</t>
+  </si>
+  <si>
+    <t>1172021-9</t>
+  </si>
+  <si>
+    <t>Studi di filologia bizantina</t>
+  </si>
+  <si>
+    <t>Università</t>
+  </si>
+  <si>
+    <t>Catania</t>
+  </si>
+  <si>
+    <t>1.1979 - 4.1988[?]</t>
+  </si>
+  <si>
+    <t>1172280-0</t>
+  </si>
+  <si>
+    <t>Palimpsēston</t>
+  </si>
+  <si>
+    <t>Hērakleio</t>
+  </si>
+  <si>
+    <t>1108-2429</t>
+  </si>
+  <si>
+    <t>1.1985 - 9/10.1989/90; 2.Per. 11.1991 -</t>
+  </si>
+  <si>
+    <t>913872-9</t>
+  </si>
+  <si>
+    <t>Byzantinai meletai</t>
+  </si>
+  <si>
+    <t>Nezerites;Nezeritēs</t>
+  </si>
+  <si>
+    <t>1.1988 - 7.1996[?]</t>
+  </si>
+  <si>
+    <t>919703-5</t>
+  </si>
+  <si>
+    <t>Godišnik na Sofijskija Universitet Sv. Kliment Ochridski</t>
+  </si>
+  <si>
+    <t>Sofija</t>
+  </si>
+  <si>
+    <t>bul;fre</t>
+  </si>
+  <si>
+    <t>0861-6353;1311-784X</t>
+  </si>
+  <si>
+    <t>870;890</t>
+  </si>
+  <si>
+    <t>6,15;7,39</t>
+  </si>
+  <si>
+    <t>Centăr za Slavjano-Vizantijski Proučvanija Ivan Dujčev = Centre de  Recherches Slavo-Byzantines Ivan Dujčev</t>
+  </si>
+  <si>
+    <t>1.1987(1990); 2=82.1988(1991) -</t>
+  </si>
+  <si>
+    <t>1a;20</t>
+  </si>
+  <si>
+    <t>189076-1</t>
+  </si>
+  <si>
+    <t>Byzantine studies</t>
+  </si>
+  <si>
+    <t>Byzantine Studies Press</t>
+  </si>
+  <si>
+    <t>Shepherdstown, W. Va.</t>
+  </si>
+  <si>
+    <t>0095-4608</t>
+  </si>
+  <si>
+    <t>1.1974 - 13.1986; N.S. 1/2.1996/97(1996) - 4.1999; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>193370-X</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Byzantina mnēmeia</t>
+  </si>
+  <si>
+    <t>Kentron</t>
+  </si>
+  <si>
+    <t>195884-7</t>
+  </si>
+  <si>
+    <t>Byzantine and modern Greek studies</t>
+  </si>
+  <si>
+    <t>Cambridge University Press;Blackwell;Centre;Maney</t>
+  </si>
+  <si>
+    <t>Cambridge;London;Birmingham;Leeds [u.a.]</t>
+  </si>
+  <si>
+    <t>0307-0131</t>
+  </si>
+  <si>
+    <t>7;30</t>
+  </si>
+  <si>
+    <t>201374-5</t>
+  </si>
+  <si>
+    <t>b;ra;mg</t>
+  </si>
+  <si>
+    <t>Zeitschrift für philosophische Forschung</t>
+  </si>
+  <si>
+    <t>Klostermann;Gryphius-Verl.;Pan-Verl.;Hain</t>
+  </si>
+  <si>
+    <t>Frankfurt, M.;Reutlingen;Wurzach, Württ.;Meisenheim, Glan</t>
+  </si>
+  <si>
+    <t>0044-3301</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6,12;6,15;5,1;0;1;FID-LING-DE-30;FID-AVL-DE-30</t>
+  </si>
+  <si>
+    <t>1.1946/47 -</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>1a;3/18;4;5;11;15;16;17/1;18;210;19;20;21;23;24;29;30;F 42;31;32;35;43;45;46;83;84;107;109;352;355;384;37;385;Tr 2;386;Lan 1;466;517;703;708;715;739;154;824;929;211;Hil 2;Lün 4;Wim 2;Fl 3;Kn 28;Lg 1;136;62;L 322;51;Mz 2;751;Kob 7</t>
+  </si>
+  <si>
+    <t>202352-0</t>
+  </si>
+  <si>
+    <t>Greek, Roman and Byzantine studies</t>
+  </si>
+  <si>
+    <t>Duke University;[Verlag nicht ermittelbar];[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>Durham, NC;San Antonio, Texas;Cambridge, Mass. [u.a.]</t>
+  </si>
+  <si>
+    <t>0017-3916;0884-7304</t>
+  </si>
+  <si>
+    <t>6,12;6,15;6,14;0;6,23</t>
+  </si>
+  <si>
+    <t>[1.]1958,Juli; 1.1958,2(Okt.) - 49.2009</t>
+  </si>
+  <si>
+    <t>208707-8</t>
+  </si>
+  <si>
+    <t>Revue des études byzantines</t>
+  </si>
+  <si>
+    <t>Peeters;[Verlag nicht ermittelbar];De Boccard</t>
+  </si>
+  <si>
+    <t>[Leuven];Bucarest;Paris</t>
+  </si>
+  <si>
+    <t>0766-5598;0771-3347</t>
+  </si>
+  <si>
+    <t>890;230</t>
+  </si>
+  <si>
+    <t>208708-X</t>
+  </si>
+  <si>
+    <t>4.1946 -</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1;5;7;15;16;18;19;20;21;24;25;30;F 42;61;384;385;Kn 28</t>
+  </si>
+  <si>
+    <t>Etudes byzantines</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Bucarest</t>
+  </si>
+  <si>
+    <t>0258-2880</t>
+  </si>
+  <si>
+    <t>302592-5</t>
+  </si>
+  <si>
+    <t>1.1943(1944) - 3.1945(1946)</t>
+  </si>
+  <si>
+    <t>215400-6</t>
+  </si>
+  <si>
+    <t>Byzantinoslavica</t>
+  </si>
+  <si>
+    <t>Euroslavica</t>
+  </si>
+  <si>
+    <t>v Praze</t>
+  </si>
+  <si>
+    <t>0007-7712</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;1;9,10;6,15;6,23</t>
+  </si>
+  <si>
+    <t>1.1929 - 60.1999; 61.2003 -</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>1a;3/10;9;15;19;20;25;385;F 36</t>
-  </si>
-  <si>
-    <t>5800-2</t>
-  </si>
-  <si>
-    <t>Byzantinische Zeitschrift</t>
-  </si>
-  <si>
-    <t>de Gruyter</t>
-  </si>
-  <si>
-    <t>Berlin;New York, NY</t>
-  </si>
-  <si>
-    <t>0007-7704</t>
-  </si>
-  <si>
-    <t>870;880;930</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;1;6,15;6,23;0</t>
-  </si>
-  <si>
-    <t>1211389-X</t>
-  </si>
-  <si>
-    <t>1.1892 - 22.1913; 23.1914/19(1920) - 42.1943/49; 43.1950 -</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3;18;19;20;F 42;46;109;361;384;385;Tr 2;700;Mch 1;Kn 28;F 36</t>
-  </si>
-  <si>
-    <t>759754-X</t>
-  </si>
-  <si>
-    <t>Byzantion Nea Hellás</t>
-  </si>
-  <si>
-    <t>Univ.</t>
-  </si>
-  <si>
-    <t>Casilla, Santiago</t>
-  </si>
-  <si>
-    <t>0716-2138</t>
-  </si>
-  <si>
-    <t>6,15;1;6,23</t>
-  </si>
-  <si>
-    <t>1.1970 -</t>
-  </si>
-  <si>
-    <t>6294-7</t>
-  </si>
-  <si>
-    <t>Corso di Cultura sull'Arte Ravennate e Bizantina</t>
-  </si>
-  <si>
-    <t>Ed. del Girasole</t>
-  </si>
-  <si>
-    <t>Ravenna</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>6,15;9,10</t>
-  </si>
-  <si>
-    <t>342371-2</t>
-  </si>
-  <si>
-    <t>[2.]1956 - [6.]1959; 7.1960 - 36.1989</t>
-  </si>
-  <si>
-    <t>7459-7</t>
-  </si>
-  <si>
-    <t>Zbornik radova Vizantološkog Instituta</t>
-  </si>
-  <si>
-    <t>Naučno Delo</t>
-  </si>
-  <si>
-    <t>Beograd</t>
-  </si>
-  <si>
-    <t>srp;fre</t>
-  </si>
-  <si>
-    <t>0584-9888</t>
-  </si>
-  <si>
-    <t>1.1952 -</t>
-  </si>
-  <si>
-    <t>4;20</t>
-  </si>
-  <si>
-    <t>8141-3</t>
-  </si>
-  <si>
-    <t>Etudes byzantines et post-byzantines</t>
-  </si>
-  <si>
-    <t>Ed. Trinita</t>
-  </si>
-  <si>
-    <t>Iaşi</t>
-  </si>
-  <si>
-    <t>0259-0913</t>
-  </si>
-  <si>
-    <t>6,15;6,23</t>
-  </si>
-  <si>
-    <t>1.1979-7 (2016) ; Nouvelle série, tome 1- = 8 (2019)-</t>
-  </si>
-  <si>
-    <t>1a;19</t>
-  </si>
-  <si>
-    <t>412478-9</t>
-  </si>
-  <si>
-    <t>Krētika chronika</t>
-  </si>
-  <si>
-    <t>Hērakleion</t>
-  </si>
-  <si>
-    <t>gre</t>
-  </si>
-  <si>
-    <t>0454-5206</t>
-  </si>
-  <si>
-    <t>910;940</t>
-  </si>
-  <si>
-    <t>6,12;6,14;6,15</t>
-  </si>
-  <si>
-    <t>1.1947 - 20.1966; 2.Per. 21.1969 - 25.1973; 3.Per. 26.1986 -</t>
-  </si>
-  <si>
-    <t>413429-1</t>
-  </si>
-  <si>
-    <t>d;ra</t>
-  </si>
-  <si>
-    <t>Corpus fontium historiae Byzantinae</t>
-  </si>
-  <si>
-    <t>Verlag der Österreichischen Akademie der Wissenschaften;Dumbarton Oaks Center for Byzantine Studies;de @Gruyter</t>
-  </si>
-  <si>
-    <t>Wien;Washington, D.C.;Berolini;Bostoniae</t>
-  </si>
-  <si>
-    <t>eng;grc</t>
-  </si>
-  <si>
-    <t>0589-8048</t>
-  </si>
-  <si>
-    <t>930;870</t>
-  </si>
-  <si>
-    <t>6,23;6,15</t>
-  </si>
-  <si>
-    <t>1.1967 -</t>
-  </si>
-  <si>
-    <t>414119-2</t>
-  </si>
-  <si>
-    <t>Makedonika &lt;Thessalonikē&gt;</t>
-  </si>
-  <si>
-    <t>Thessalonikē</t>
-  </si>
-  <si>
-    <t>0076-289X</t>
-  </si>
-  <si>
-    <t>9,10;6,15;6,16</t>
-  </si>
-  <si>
-    <t>1.1940 -</t>
-  </si>
-  <si>
-    <t>1a;16</t>
-  </si>
-  <si>
-    <t>27575-X</t>
-  </si>
-  <si>
-    <t>Peloponnēsiaka</t>
-  </si>
-  <si>
-    <t>910;940;914.3;943</t>
-  </si>
-  <si>
-    <t>Parartēma</t>
-  </si>
-  <si>
-    <t>1.1974 -</t>
-  </si>
-  <si>
-    <t>420491-8</t>
-  </si>
-  <si>
-    <t>d;rb</t>
-  </si>
-  <si>
-    <t>Byzantina keimena kai meletai</t>
-  </si>
-  <si>
-    <t>Kentro Byzantinōn Ereunōn</t>
-  </si>
-  <si>
-    <t>grc;gre;eng</t>
-  </si>
-  <si>
-    <t>1106-6180</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>1113500-1</t>
-  </si>
-  <si>
-    <t>Epetēris Hidrymatos Neoellēnikōn Spudōn</t>
-  </si>
-  <si>
-    <t>1.1979/80 - 13.2005/06[?]</t>
-  </si>
-  <si>
-    <t>41714-2</t>
-  </si>
-  <si>
-    <t>Bulletin d'information et de coordination</t>
-  </si>
-  <si>
-    <t>Athènes</t>
-  </si>
-  <si>
-    <t>0571-5857</t>
-  </si>
-  <si>
-    <t>880;940</t>
-  </si>
-  <si>
-    <t>1.1964 - 21.2000/01; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>802568-X</t>
-  </si>
-  <si>
-    <t>Vedute sull'Egitto antico</t>
-  </si>
-  <si>
-    <t>Giappichelli</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>6,11;6,12;6,15;6,21</t>
-  </si>
-  <si>
-    <t>1.1974/79(1981) - 6.1995/96(1997)[?]</t>
-  </si>
-  <si>
-    <t>429988-7</t>
-  </si>
-  <si>
-    <t>Byzantina</t>
-  </si>
-  <si>
-    <t>Gävle</t>
-  </si>
-  <si>
-    <t>1.1972(1973) - 3/4.1974/75(1977)[?]</t>
-  </si>
-  <si>
-    <t>803003-0</t>
-  </si>
-  <si>
-    <t>Horos</t>
-  </si>
-  <si>
-    <t>Typ. Keimena</t>
-  </si>
-  <si>
-    <t>1105-2163</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>6,14;6,15</t>
-  </si>
-  <si>
-    <t>1.1983 - 14/16.2000/03(2003); 17/21.2004/09(2010) -</t>
-  </si>
-  <si>
-    <t>16;29</t>
-  </si>
-  <si>
-    <t>806187-7</t>
-  </si>
-  <si>
-    <t>Byzantium and the north</t>
-  </si>
-  <si>
-    <t>Seura</t>
-  </si>
-  <si>
-    <t>Helsinki</t>
-  </si>
-  <si>
-    <t>0356-1879;0783-2478</t>
-  </si>
-  <si>
-    <t>2101606-9</t>
-  </si>
-  <si>
-    <t>1.1985 - 10.1999/2000(2000)</t>
-  </si>
-  <si>
-    <t>503457-7</t>
-  </si>
-  <si>
-    <t>Münchener Beiträge zur Papyrusforschung und antiken Rechtsgeschichte</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>0936-3718</t>
-  </si>
-  <si>
-    <t>730;920;930;340</t>
-  </si>
-  <si>
-    <t>6,11;6,12;6,15</t>
-  </si>
-  <si>
-    <t>503449-8</t>
-  </si>
-  <si>
-    <t>H. 4.1922 - 35.1945; 36.1952 - 69.1976; 71.1977 -</t>
-  </si>
-  <si>
-    <t>89887-9</t>
-  </si>
-  <si>
-    <t>Bulletin of British Byzantine studies</t>
-  </si>
-  <si>
-    <t>Committee</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>0265-1629</t>
-  </si>
-  <si>
-    <t>1.1975 -</t>
-  </si>
-  <si>
-    <t>91279-7</t>
-  </si>
-  <si>
-    <t>b;ra;ee</t>
-  </si>
-  <si>
-    <t>Varia</t>
-  </si>
-  <si>
-    <t>Habelt</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>ger;eng</t>
-  </si>
-  <si>
-    <t>1.1984 - 7.2000; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1146395-8</t>
-  </si>
-  <si>
-    <t>Studies in ancient art and civilization</t>
-  </si>
-  <si>
-    <t>Inst. Archeologii Uniwersytetu Jagiellońskiego</t>
-  </si>
-  <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>0083-4300</t>
-  </si>
-  <si>
-    <t>6,21;6,12;6,15;7,41</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>1153987-2</t>
-  </si>
-  <si>
-    <t>Bulgaria pontica medii aevi</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>lat;eng;fre</t>
-  </si>
-  <si>
-    <t>1.1979(1981) -</t>
-  </si>
-  <si>
-    <t>Association des Amis du Centre d'Histoire et Civilisation de Byzance</t>
-  </si>
-  <si>
-    <t>0751-0594;0577-1471</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>5.1973 -</t>
-  </si>
-  <si>
-    <t>1a;4;5;11;16;20;25;30;385</t>
-  </si>
-  <si>
-    <t>1170904-2</t>
-  </si>
-  <si>
-    <t>Ho eranistēs</t>
-  </si>
-  <si>
-    <t>0425-1660</t>
-  </si>
-  <si>
-    <t>050;870</t>
-  </si>
-  <si>
-    <t>1.1963 -</t>
-  </si>
-  <si>
-    <t>1172021-9</t>
-  </si>
-  <si>
-    <t>Studi di filologia bizantina</t>
-  </si>
-  <si>
-    <t>Università</t>
-  </si>
-  <si>
-    <t>Catania</t>
-  </si>
-  <si>
-    <t>1.1979 - 4.1988[?]</t>
-  </si>
-  <si>
-    <t>1172280-0</t>
-  </si>
-  <si>
-    <t>Palimpsēston</t>
-  </si>
-  <si>
-    <t>Hērakleio</t>
-  </si>
-  <si>
-    <t>1108-2429</t>
-  </si>
-  <si>
-    <t>1.1985 - 9/10.1989/90; 2.Per. 11.1991 -</t>
-  </si>
-  <si>
-    <t>913872-9</t>
-  </si>
-  <si>
-    <t>Byzantinai meletai</t>
-  </si>
-  <si>
-    <t>Nezerites;Nezeritēs</t>
-  </si>
-  <si>
-    <t>1.1988 - 7.1996[?]</t>
-  </si>
-  <si>
-    <t>919703-5</t>
-  </si>
-  <si>
-    <t>Godišnik na Sofijskija Universitet Sv. Kliment Ochridski</t>
-  </si>
-  <si>
-    <t>Sofija</t>
-  </si>
-  <si>
-    <t>bul;fre</t>
-  </si>
-  <si>
-    <t>0861-6353;1311-784X</t>
-  </si>
-  <si>
-    <t>870;890</t>
-  </si>
-  <si>
-    <t>6,15;7,39</t>
-  </si>
-  <si>
-    <t>Centăr za Slavjano-Vizantijski Proučvanija Ivan Dujčev = Centre de  Recherches Slavo-Byzantines Ivan Dujčev</t>
-  </si>
-  <si>
-    <t>1.1987(1990); 2=82.1988(1991) -</t>
-  </si>
-  <si>
-    <t>1a;20</t>
-  </si>
-  <si>
-    <t>189076-1</t>
-  </si>
-  <si>
-    <t>Byzantine studies</t>
-  </si>
-  <si>
-    <t>Byzantine Studies Press</t>
-  </si>
-  <si>
-    <t>Shepherdstown, W. Va.</t>
-  </si>
-  <si>
-    <t>0095-4608</t>
-  </si>
-  <si>
-    <t>1.1974 - 13.1986; N.S. 1/2.1996/97(1996) - 4.1999; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>193370-X</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Byzantina mnēmeia</t>
-  </si>
-  <si>
-    <t>Kentron</t>
-  </si>
-  <si>
-    <t>195884-7</t>
-  </si>
-  <si>
-    <t>Byzantine and modern Greek studies</t>
-  </si>
-  <si>
-    <t>Cambridge University Press;Blackwell;Centre;Maney</t>
-  </si>
-  <si>
-    <t>Cambridge;London;Birmingham;Leeds [u.a.]</t>
-  </si>
-  <si>
-    <t>0307-0131</t>
+    <t>1a;5;7;14;16;19;F 42;61;739</t>
+  </si>
+  <si>
+    <t>215646-5</t>
+  </si>
+  <si>
+    <t>Ēpeirōtika chronika</t>
+  </si>
+  <si>
+    <t>Iōannina</t>
+  </si>
+  <si>
+    <t>1108-4758</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>1.1926 - 16.1941; 2.F. 1=17.1973 - 4/5=20/21.1976/77; 22.1980 -</t>
+  </si>
+  <si>
+    <t>217207-0</t>
+  </si>
+  <si>
+    <t>Byzantinisch-neugriechische Jahrbücher</t>
+  </si>
+  <si>
+    <t>Verl. der Byzantin.-Neugriech. Jahrbücher</t>
+  </si>
+  <si>
+    <t>Athen</t>
+  </si>
+  <si>
+    <t>1010-3511</t>
+  </si>
+  <si>
+    <t>6,15;6,23;9,10</t>
+  </si>
+  <si>
+    <t>1.1920 - 22.1977/84(1985); damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1007733-9</t>
+  </si>
+  <si>
+    <t>Byzantinos domos</t>
+  </si>
+  <si>
+    <t>Domos</t>
+  </si>
+  <si>
+    <t>1106-1901</t>
+  </si>
+  <si>
+    <t>870;940</t>
+  </si>
+  <si>
+    <t>1.1987 -</t>
+  </si>
+  <si>
+    <t>1011643-6</t>
+  </si>
+  <si>
+    <t>b;rb;mg</t>
+  </si>
+  <si>
+    <t>Mitteilungen aus der österreichischen Byzantinistik und Neogräzistik</t>
+  </si>
+  <si>
+    <t>Ges.</t>
+  </si>
+  <si>
+    <t>1029-4228</t>
+  </si>
+  <si>
+    <t>Nr. 1.1987 -</t>
+  </si>
+  <si>
+    <t>1013053-6</t>
+  </si>
+  <si>
+    <t>Mesaiōnika kai nea Hellēnika</t>
+  </si>
+  <si>
+    <t>1105-3399</t>
+  </si>
+  <si>
+    <t>6,15;6,16</t>
+  </si>
+  <si>
+    <t>442841-9</t>
+  </si>
+  <si>
+    <t>1.1984 -</t>
+  </si>
+  <si>
+    <t>1245380-8</t>
+  </si>
+  <si>
+    <t>Lexikographikon archeion tēs mesēs kai neas Hellēnikēs</t>
+  </si>
+  <si>
+    <t>1.1915 - 6.1923[?]</t>
+  </si>
+  <si>
+    <t>1245544-1</t>
+  </si>
+  <si>
+    <t>Thēsaurismata tu Hellēniku Institutu Byzantinōn kai Metabyzantinōn Spudōn</t>
+  </si>
+  <si>
+    <t>Istituto</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>282407-3</t>
+  </si>
+  <si>
+    <t>1.1962 - 4.1967</t>
+  </si>
+  <si>
+    <t>628501-6</t>
+  </si>
+  <si>
+    <t>Graeco-Arabica</t>
+  </si>
+  <si>
+    <t>Hetaireia</t>
+  </si>
+  <si>
+    <t>6,12;6,15;6,23</t>
+  </si>
+  <si>
+    <t>628502-8</t>
+  </si>
+  <si>
+    <t>Byzantiaka</t>
+  </si>
+  <si>
+    <t>1012-0513</t>
+  </si>
+  <si>
+    <t>1.1981 -</t>
+  </si>
+  <si>
+    <t>639868-6</t>
+  </si>
+  <si>
+    <t>Symmeikta</t>
+  </si>
+  <si>
+    <t>1105-1639</t>
+  </si>
+  <si>
+    <t>2543364-7</t>
+  </si>
+  <si>
+    <t>1.1966 - 17.2005/07(2007)</t>
+  </si>
+  <si>
+    <t>641249-X</t>
+  </si>
+  <si>
+    <t>Ta Historika</t>
+  </si>
+  <si>
+    <t>Edit. Melissa</t>
+  </si>
+  <si>
+    <t>1105-1663</t>
+  </si>
+  <si>
+    <t>1.1983/84 - ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>641250-6</t>
+  </si>
+  <si>
+    <t>Historikogeōgraphika</t>
+  </si>
+  <si>
+    <t>Kordoses</t>
+  </si>
+  <si>
+    <t>Ioannina</t>
+  </si>
+  <si>
+    <t>1.1986 -</t>
+  </si>
+  <si>
+    <t>1269645-6</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>0281-8930</t>
+  </si>
+  <si>
+    <t>1361537-3</t>
+  </si>
+  <si>
+    <t>1.1983 - 8.1990</t>
+  </si>
+  <si>
+    <t>280421-9</t>
+  </si>
+  <si>
+    <t>1105-0772</t>
+  </si>
+  <si>
+    <t>1;6,15;5,1</t>
+  </si>
+  <si>
+    <t>1.1969 -</t>
+  </si>
+  <si>
+    <t>16;Re 13</t>
+  </si>
+  <si>
+    <t>Thēsaurismata</t>
+  </si>
+  <si>
+    <t>ita;gre</t>
+  </si>
+  <si>
+    <t>1108-3980</t>
+  </si>
+  <si>
+    <t>1.1962-</t>
+  </si>
+  <si>
+    <t>1286258-7</t>
+  </si>
+  <si>
+    <t>Heōa kai hesperia</t>
+  </si>
+  <si>
+    <t>EESMNED</t>
+  </si>
+  <si>
+    <t>1106-2614</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>1.1993 -</t>
+  </si>
+  <si>
+    <t>301319-4</t>
+  </si>
+  <si>
+    <t>Ayasofya  Müzesi yıllığı</t>
+  </si>
+  <si>
+    <t>İstanbul</t>
+  </si>
+  <si>
+    <t>060;890;700</t>
+  </si>
+  <si>
+    <t>FID-NAHOST-DE-3;6,15;6,23</t>
+  </si>
+  <si>
+    <t>Nr. 1.1959 - 8.1969; 9.1983 -</t>
+  </si>
+  <si>
+    <t>2026586-4</t>
+  </si>
+  <si>
+    <t>Ricerche di egittologia e di antichità copte</t>
+  </si>
+  <si>
+    <t>Ed. La Mandragora</t>
+  </si>
+  <si>
+    <t>Imola</t>
+  </si>
+  <si>
+    <t>1000880-9</t>
+  </si>
+  <si>
+    <t>1.1999 - 13.2013; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2047124-5</t>
+  </si>
+  <si>
+    <t>Pričernomorʹe v srednie veka</t>
+  </si>
+  <si>
+    <t>Izdat. Aletejja</t>
+  </si>
+  <si>
+    <t>Sankt-Peterburg</t>
+  </si>
+  <si>
+    <t>6,26;6,15;FID-ALT-DE-12</t>
+  </si>
+  <si>
+    <t>[1].1991; 2.1995 -</t>
+  </si>
+  <si>
+    <t>2052410-9</t>
+  </si>
+  <si>
+    <t>Medioevo greco</t>
+  </si>
+  <si>
+    <t>Ed. dell'Orso</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>1593-456X</t>
+  </si>
+  <si>
+    <t>0.2000; 1.2001 -</t>
+  </si>
+  <si>
+    <t>1;19;B 4</t>
+  </si>
+  <si>
+    <t>2432071-7</t>
+  </si>
+  <si>
+    <t>Sonderheft</t>
+  </si>
+  <si>
+    <t>Dt. Arbeitsgemeinschaft zur Förderung Byzantinischer Studien</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>2008 -</t>
+  </si>
+  <si>
+    <t>2056932-4</t>
+  </si>
+  <si>
+    <t>Göttinger Beiträge zur byzantinischen und neugriechischen Philologie</t>
+  </si>
+  <si>
+    <t>Peust &amp; Gutschmidt</t>
+  </si>
+  <si>
+    <t>Göttingen</t>
+  </si>
+  <si>
+    <t>1617-0423</t>
+  </si>
+  <si>
+    <t>H. 1.2001 - 6/7.2006/07; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2061306-4</t>
+  </si>
+  <si>
+    <t>Peri istorias</t>
+  </si>
+  <si>
+    <t>Kerkyra</t>
+  </si>
+  <si>
+    <t>1107-1559</t>
+  </si>
+  <si>
+    <t>3.2001 nachgewiesen</t>
+  </si>
+  <si>
+    <t>2065434-0</t>
+  </si>
+  <si>
+    <t>datacarrier</t>
+  </si>
+  <si>
+    <t>Byzantinische Zeitschrift, Bibliographie</t>
+  </si>
+  <si>
+    <t>Saur</t>
+  </si>
+  <si>
+    <t>München;Leipzig</t>
+  </si>
+  <si>
+    <t>9,10;6,15</t>
+  </si>
+  <si>
+    <t>Ed. 1=84/93.1991/2000(2001); 2=83/94.1990/2001(2004); 3=83/97.1990/2004(2005); damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1102-674X</t>
+  </si>
+  <si>
+    <t>9.1991 - 29.2011; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2085106-6</t>
+  </si>
+  <si>
+    <t>Moschovia Moschovia</t>
+  </si>
+  <si>
+    <t>Izdat. Indrik</t>
+  </si>
+  <si>
+    <t>rus;gre</t>
+  </si>
+  <si>
+    <t>1.2001 -</t>
+  </si>
+  <si>
+    <t>2468815-0</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Byzantina Symmeikta</t>
+  </si>
+  <si>
+    <t>1791-4884</t>
+  </si>
+  <si>
+    <t>2545299-X</t>
+  </si>
+  <si>
+    <t>18.2008 -</t>
+  </si>
+  <si>
+    <t>http://ejournals.epublishing.ekt.gr/index.php/bz/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2468815</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>8;19;M 347;20;26;29;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;547;703;739;824;573;150;706;Re 13</t>
+  </si>
+  <si>
+    <t>2477149-1</t>
+  </si>
+  <si>
+    <t>b;nl</t>
+  </si>
+  <si>
+    <t>Slovanský Ústav Akademie věd ČR [u.a.];CEEOL</t>
+  </si>
+  <si>
+    <t>Praha;Frankfurt, Main</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 59.1998 -</t>
+  </si>
+  <si>
+    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=265;http://www.lib.cas.cz/casopisy/eng/Byzantinoslavica.htm;http://www.bibliothek.uni-regensburg.de/ezeit/?2477149</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;944;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
+  </si>
+  <si>
+    <t>Acta Byzantina Fennica</t>
+  </si>
+  <si>
+    <t>1458-7017</t>
+  </si>
+  <si>
+    <t>N.S. 1.2002 - 2.2003/04(2005); 3.2010 -</t>
+  </si>
+  <si>
+    <t>2487595-8</t>
+  </si>
+  <si>
+    <t>Konštantínove listy</t>
+  </si>
+  <si>
+    <t>Nitra</t>
+  </si>
+  <si>
+    <t>slo</t>
+  </si>
+  <si>
+    <t>1337-8740</t>
+  </si>
+  <si>
+    <t>6,15;7,41</t>
+  </si>
+  <si>
+    <t>1.2008 - 9.2016[?]</t>
+  </si>
+  <si>
+    <t>2193605-5</t>
+  </si>
+  <si>
+    <t>To ergo tu Hellēniku Institutu Byzantinōn kai Metabyzantinōn Spudōn Benetias</t>
+  </si>
+  <si>
+    <t>Benetia</t>
+  </si>
+  <si>
+    <t>000;870</t>
+  </si>
+  <si>
+    <t>2001/02(2002) - 2002/03(2003) nachgewiesen</t>
+  </si>
+  <si>
+    <t>2493502-5</t>
+  </si>
+  <si>
+    <t>Scrinium</t>
+  </si>
+  <si>
+    <t>Brill;Byzantinorossica;Axiōma;Gorgias Press</t>
+  </si>
+  <si>
+    <t>Leiden;Saint-Pétersbourg;St. Peterburg;Piscataway, NJ</t>
+  </si>
+  <si>
+    <t>1817-7565</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>Tome 1-</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2493502;https://brill.com/scri;http://scrinium.ru/about</t>
+  </si>
+  <si>
+    <t>2113747-X</t>
+  </si>
+  <si>
+    <t>Grecija i slavjanskij mir</t>
+  </si>
+  <si>
+    <t>Simferopol'</t>
+  </si>
+  <si>
+    <t>910;940;400;300</t>
+  </si>
+  <si>
+    <t>1.2002[?]</t>
+  </si>
+  <si>
+    <t>2208498-8</t>
+  </si>
+  <si>
+    <t>Néa Rhóme</t>
+  </si>
+  <si>
+    <t>Università degli Studi di Roma Tor Vergata</t>
+  </si>
+  <si>
+    <t>ita;eng;fre</t>
+  </si>
+  <si>
+    <t>1970-2345</t>
+  </si>
+  <si>
+    <t>930;700</t>
+  </si>
+  <si>
+    <t>1.2004 -</t>
+  </si>
+  <si>
+    <t>16;19;20</t>
+  </si>
+  <si>
+    <t>1425876-6</t>
+  </si>
+  <si>
+    <t>Mitteilungen zur spätantiken Archäologie und byzantinischen Kunstgeschichte</t>
+  </si>
+  <si>
+    <t>Reichert</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>1434-7091</t>
+  </si>
+  <si>
+    <t>930;940;700</t>
+  </si>
+  <si>
+    <t>9,10;6,12;6,15</t>
+  </si>
+  <si>
+    <t>1.1998 -</t>
+  </si>
+  <si>
+    <t>1a;16;43</t>
+  </si>
+  <si>
+    <t>2213674-5</t>
+  </si>
+  <si>
+    <t>Basilissa</t>
+  </si>
+  <si>
+    <t>Belfast Byzantine Enterprises</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>1746-4714</t>
+  </si>
+  <si>
+    <t>1.2004; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1447697-6</t>
+  </si>
+  <si>
+    <t>Bibliographie de l'art byzantin et postbyzantin</t>
+  </si>
+  <si>
+    <t>Centre de Recherches de l'Art Byzantin et Postbyzantin</t>
+  </si>
+  <si>
+    <t>1945/69(1970) -</t>
+  </si>
+  <si>
+    <t>1449239-8</t>
+  </si>
+  <si>
+    <t>Acta patristica et byzantina</t>
+  </si>
+  <si>
+    <t>Unisa Press</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>1022-6486</t>
+  </si>
+  <si>
+    <t>1;6,15</t>
+  </si>
+  <si>
+    <t>2680018-4</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2.1991 - 21.2010</t>
+  </si>
+  <si>
+    <t>1792-0450</t>
+  </si>
+  <si>
+    <t>18.2008-20 (2010)</t>
+  </si>
+  <si>
+    <t>2234826-8</t>
+  </si>
+  <si>
+    <t>Scrinium: journal of patrology and critical hagiography</t>
+  </si>
+  <si>
+    <t>Brill;Byzantinorossica;Gorgias Press</t>
+  </si>
+  <si>
+    <t>Leiden;Boston;Saint-Pétersbourg;Piscataway, NJ</t>
+  </si>
+  <si>
+    <t>1817-7530</t>
+  </si>
+  <si>
+    <t>1.2005 -</t>
+  </si>
+  <si>
+    <t>1.1966 - 17.2005</t>
+  </si>
+  <si>
+    <t>http://www.byzsym.org/;http://www.bibliothek.uni-regensburg.de/ezeit/?2545299</t>
+  </si>
+  <si>
+    <t>2238024-3</t>
+  </si>
+  <si>
+    <t>b;nk;nl</t>
+  </si>
+  <si>
+    <t>Cambridge University Press;Maney</t>
+  </si>
+  <si>
+    <t>Cambridge;Leeds [u.a.]</t>
+  </si>
+  <si>
+    <t>1749-625X</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2238024;http://www.cambridge.org/core/product/identifier/BYZ/type/JOURNAL;http://www.cambridge.org/core/product/identifier/BYZ/type/JOURNAL;https://www.tandfonline.com/loi/ybyz20</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;14;15;15/292;16;18;19;20;21;24;25;26;27;28;29;31;84;89;90;91;93;95;100;105;180;Mh 39;289;Sa 18;291;352;355;384;473;517;521;547;703;705;739;Hil 2;Ma 9;Lün 4;Ch 1;841;634;354;D 120;706;F 197;960/3;1866;Re 13</t>
+  </si>
+  <si>
+    <t>2246126-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byzantinoslovaca </t>
+  </si>
+  <si>
+    <t>Univ. Komenského</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>slo;cze</t>
+  </si>
+  <si>
+    <t>1.2006 -</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2589907-7</t>
+  </si>
+  <si>
+    <t>Meletēmata Ēmathias</t>
+  </si>
+  <si>
+    <t>Stamulēs</t>
+  </si>
+  <si>
+    <t>Beroia</t>
+  </si>
+  <si>
+    <t>1.2009(2010),1; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2017569-3</t>
+  </si>
+  <si>
+    <t>Bizantinistica</t>
+  </si>
+  <si>
+    <t>Fondazione Centro Italiano di Studi sull'Alto Medioevo;CISAM</t>
+  </si>
+  <si>
+    <t>Spoleto</t>
+  </si>
+  <si>
+    <t>1124-3953</t>
+  </si>
+  <si>
+    <t>913373-2</t>
+  </si>
+  <si>
+    <t>2.Ser. 1.1999 -</t>
+  </si>
+  <si>
+    <t>1;16</t>
+  </si>
+  <si>
+    <t>2617357-8</t>
+  </si>
+  <si>
+    <t>Ankyra</t>
+  </si>
+  <si>
+    <t>Andros</t>
+  </si>
+  <si>
+    <t>1109-1681</t>
+  </si>
+  <si>
+    <t>930;940</t>
+  </si>
+  <si>
+    <t>6,12;6,15;6,16</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 3.2010 -</t>
+  </si>
+  <si>
+    <t>2632828-8</t>
+  </si>
+  <si>
+    <t>Chora</t>
+  </si>
+  <si>
+    <t>Ed. Polirom</t>
+  </si>
+  <si>
+    <t>Paris;Iași</t>
+  </si>
+  <si>
+    <t>eng;mul</t>
+  </si>
+  <si>
+    <t>2162-6529</t>
+  </si>
+  <si>
+    <t>FID-PHILOS-DE-12;6,12;6,15;FID-ALT-DE-12;1</t>
+  </si>
+  <si>
+    <t>1.2003 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2632828;http://www.revuechora.com/;https://www.ceeol.com/search/journal-detail?id=1119;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;https://www.pdcnet.org/chora</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;1046;898;1050;155;355;37;384;70;473;517;521;547;703;705;739;824;150;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
+  </si>
+  <si>
+    <t>2646710-0</t>
+  </si>
+  <si>
+    <t>Bulgaria mediaevalis</t>
+  </si>
+  <si>
+    <t>Bulgarian Historical Heritage Foundation</t>
+  </si>
+  <si>
+    <t>bul;eng;fre;ger</t>
+  </si>
+  <si>
+    <t>1314-2941</t>
+  </si>
+  <si>
+    <t>1.2010-</t>
+  </si>
+  <si>
+    <t>2863831-1</t>
+  </si>
+  <si>
+    <t>1 (2010)-</t>
+  </si>
+  <si>
+    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=1331;https://bibliophilia.eu/middle-ages-bulgaria-mediaevalis;http://www.bibliothek.uni-regensburg.de/ezeit/?2863831</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;824;150;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
+  </si>
+  <si>
+    <t>Journal of early Christian history</t>
+  </si>
+  <si>
+    <t>Unisa Press;Routledge, Taylor &amp; Francis Group</t>
+  </si>
+  <si>
+    <t>Pretoria;Abingdon, Oxon</t>
+  </si>
+  <si>
+    <t>2222-582X</t>
+  </si>
+  <si>
+    <t>1;6,15;6,12</t>
+  </si>
+  <si>
+    <t>1.2011 -</t>
+  </si>
+  <si>
+    <t>Kn 28</t>
+  </si>
+  <si>
+    <t>2684405-9</t>
+  </si>
+  <si>
+    <t>Boriso-Glebskij sbornik</t>
+  </si>
+  <si>
+    <t>ACHCbyz</t>
+  </si>
+  <si>
+    <t>1.2009 -</t>
+  </si>
+  <si>
+    <t>2690210-2</t>
+  </si>
+  <si>
+    <t>b;nk</t>
+  </si>
+  <si>
+    <t>Peeters;Edouard Champion;Vaillant-Carmanne</t>
+  </si>
+  <si>
+    <t>Leuven;Paris;Liége</t>
+  </si>
+  <si>
+    <t>2294-6209</t>
+  </si>
+  <si>
+    <t>6,15;1;0;FID-ALT-DE-12</t>
+  </si>
+  <si>
+    <t>http://poj.peeters-leuven.be/content.php?url=journal&amp;journal_code=BYZ;http://www.jstor.org/journal/byzantion;http://www.bibliothek.uni-regensburg.de/ezeit/?2690210</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>3;4;7;8;9;14;15;15/292;16;Ds 114;18;210;19;M 352;21;24;Frei 160;25;26;27;28;29;31;43;83;84;89;90;91;93;100;105;180;289;Sa 18;291;352;355;384;473;70;517;547;703;705;824;Hil 2;Ma 9;Lün 4;Ch 1;Wim 2;520;523;751;Zi 4</t>
+  </si>
+  <si>
+    <t>2699347-8</t>
+  </si>
+  <si>
+    <t>2241-2018</t>
+  </si>
+  <si>
+    <t>Tomos 1-</t>
+  </si>
+  <si>
+    <t>http://ejournals.epublishing.ekt.gr/index.php/makedonika;http://www.bibliothek.uni-regensburg.de/ezeit/?2699347</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>8;M 352;210;19;M 347;20;26;29;92;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;521;547;703;739;824;573;150;634;706;523;Re 13</t>
+  </si>
+  <si>
+    <t>2705524-3</t>
+  </si>
+  <si>
+    <t>Materialy i issledovanija Otdela Numizmatiki</t>
+  </si>
+  <si>
+    <t>Izdat. Gosudarstvennogo Ėrmitaža</t>
+  </si>
+  <si>
+    <t>930;730</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 2005 -</t>
+  </si>
+  <si>
+    <t>2768339-4</t>
+  </si>
+  <si>
+    <t>Diogenes</t>
+  </si>
+  <si>
+    <t>GEM</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>2054-6696</t>
+  </si>
+  <si>
+    <t>940;950</t>
+  </si>
+  <si>
+    <t>1.2014 -</t>
+  </si>
+  <si>
+    <t>http://gembirmingham.org/gem-activities/online-journal-cfp/diogenes1/;http://www.bibliothek.uni-regensburg.de/ezeit/?2768339</t>
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>201374-5</t>
-  </si>
-  <si>
-    <t>b;ra;mg</t>
-  </si>
-  <si>
-    <t>Zeitschrift für philosophische Forschung</t>
-  </si>
-  <si>
-    <t>Klostermann;Gryphius-Verl.;Pan-Verl.;Hain</t>
-  </si>
-  <si>
-    <t>Frankfurt, M.;Reutlingen;Wurzach, Württ.;Meisenheim, Glan</t>
-  </si>
-  <si>
-    <t>0044-3301</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6,12;6,15;5,1;0;1;FID-LING-DE-30;FID-AVL-DE-30</t>
-  </si>
-  <si>
-    <t>1.1946/47 -</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1a;3/18;4;5;11;15;16;17/1;18;210;19;20;21;24;29;30;F 42;31;32;43;46;83;107;109;352;355;384;37;385;Tr 2;386;Lan 1;466;517;703;708;715;739;154;824;929;211;Lün 4;Wim 2;Kn 28;Lg 1;136;62;L 322;51;Mz 2;751;Kob 7</t>
-  </si>
-  <si>
-    <t>202352-0</t>
-  </si>
-  <si>
-    <t>Greek, Roman and Byzantine studies</t>
-  </si>
-  <si>
-    <t>Duke University;[Verlag nicht ermittelbar];[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>Durham, NC;San Antonio, Texas;Cambridge, Mass. [u.a.]</t>
-  </si>
-  <si>
-    <t>0017-3916;0884-7304</t>
-  </si>
-  <si>
-    <t>6,12;6,15;6,14;0;6,23</t>
-  </si>
-  <si>
-    <t>[1.]1958,Juli; 1.1958,2(Okt.) - 49.2009</t>
-  </si>
-  <si>
-    <t>208707-8</t>
-  </si>
-  <si>
-    <t>Revue des études byzantines</t>
-  </si>
-  <si>
-    <t>Peeters;[Verlag nicht ermittelbar];De Boccard</t>
-  </si>
-  <si>
-    <t>[Leuven];Bucarest;Paris</t>
-  </si>
-  <si>
-    <t>0766-5598;0771-3347</t>
-  </si>
-  <si>
-    <t>890;230</t>
-  </si>
-  <si>
-    <t>208708-X</t>
-  </si>
-  <si>
-    <t>4.1946 -</t>
-  </si>
-  <si>
-    <t>1;5;15;16;18;19;20;21;24;25;30;F 42;61;384;385;Kn 28</t>
-  </si>
-  <si>
-    <t>Etudes byzantines</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Bucarest</t>
-  </si>
-  <si>
-    <t>0258-2880</t>
-  </si>
-  <si>
-    <t>302592-5</t>
-  </si>
-  <si>
-    <t>1.1943(1944) - 3.1945(1946)</t>
-  </si>
-  <si>
-    <t>215400-6</t>
-  </si>
-  <si>
-    <t>Byzantinoslavica</t>
-  </si>
-  <si>
-    <t>Euroslavica</t>
-  </si>
-  <si>
-    <t>v Praze</t>
-  </si>
-  <si>
-    <t>0007-7712</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;1;9,10;6,15;6,23</t>
-  </si>
-  <si>
-    <t>1.1929 - 60.1999; 61.2003 -</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1a;5;14;16;19;F 42;61;739</t>
-  </si>
-  <si>
-    <t>215646-5</t>
-  </si>
-  <si>
-    <t>Ēpeirōtika chronika</t>
-  </si>
-  <si>
-    <t>Iōannina</t>
-  </si>
-  <si>
-    <t>1108-4758</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>1.1926 - 16.1941; 2.F. 1=17.1973 - 4/5=20/21.1976/77; 22.1980 -</t>
-  </si>
-  <si>
-    <t>217207-0</t>
-  </si>
-  <si>
-    <t>Byzantinisch-neugriechische Jahrbücher</t>
-  </si>
-  <si>
-    <t>Verl. der Byzantin.-Neugriech. Jahrbücher</t>
-  </si>
-  <si>
-    <t>Athen</t>
-  </si>
-  <si>
-    <t>1010-3511</t>
-  </si>
-  <si>
-    <t>6,15;6,23;9,10</t>
-  </si>
-  <si>
-    <t>1.1920 - 22.1977/84(1985); damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1007733-9</t>
-  </si>
-  <si>
-    <t>Byzantinos domos</t>
-  </si>
-  <si>
-    <t>Domos</t>
-  </si>
-  <si>
-    <t>1106-1901</t>
-  </si>
-  <si>
-    <t>870;940</t>
-  </si>
-  <si>
-    <t>1.1987 -</t>
-  </si>
-  <si>
-    <t>1011643-6</t>
-  </si>
-  <si>
-    <t>b;rb;mg</t>
-  </si>
-  <si>
-    <t>Mitteilungen aus der österreichischen Byzantinistik und Neogräzistik</t>
-  </si>
-  <si>
-    <t>Ges.</t>
-  </si>
-  <si>
-    <t>1029-4228</t>
-  </si>
-  <si>
-    <t>Nr. 1.1987 -</t>
-  </si>
-  <si>
-    <t>1013053-6</t>
-  </si>
-  <si>
-    <t>Mesaiōnika kai nea Hellēnika</t>
-  </si>
-  <si>
-    <t>1105-3399</t>
-  </si>
-  <si>
-    <t>6,15;6,16</t>
-  </si>
-  <si>
-    <t>442841-9</t>
-  </si>
-  <si>
-    <t>1.1984 -</t>
-  </si>
-  <si>
-    <t>1245380-8</t>
-  </si>
-  <si>
-    <t>Lexikographikon archeion tēs mesēs kai neas Hellēnikēs</t>
-  </si>
-  <si>
-    <t>1.1915 - 6.1923[?]</t>
-  </si>
-  <si>
-    <t>1245544-1</t>
-  </si>
-  <si>
-    <t>Thēsaurismata tu Hellēniku Institutu Byzantinōn kai Metabyzantinōn Spudōn</t>
-  </si>
-  <si>
-    <t>Istituto</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>282407-3</t>
-  </si>
-  <si>
-    <t>1.1962 - 4.1967</t>
-  </si>
-  <si>
-    <t>628501-6</t>
-  </si>
-  <si>
-    <t>Graeco-Arabica</t>
-  </si>
-  <si>
-    <t>Hetaireia</t>
-  </si>
-  <si>
-    <t>6,12;6,15;6,23</t>
-  </si>
-  <si>
-    <t>628502-8</t>
-  </si>
-  <si>
-    <t>Byzantiaka</t>
-  </si>
-  <si>
-    <t>1012-0513</t>
-  </si>
-  <si>
-    <t>1.1981 -</t>
-  </si>
-  <si>
-    <t>639868-6</t>
-  </si>
-  <si>
-    <t>Symmeikta</t>
-  </si>
-  <si>
-    <t>1105-1639</t>
-  </si>
-  <si>
-    <t>2543364-7</t>
-  </si>
-  <si>
-    <t>1.1966 - 17.2005/07(2007)</t>
-  </si>
-  <si>
-    <t>641249-X</t>
-  </si>
-  <si>
-    <t>Ta Historika</t>
-  </si>
-  <si>
-    <t>Edit. Melissa</t>
-  </si>
-  <si>
-    <t>1105-1663</t>
-  </si>
-  <si>
-    <t>1.1983/84 - ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>641250-6</t>
-  </si>
-  <si>
-    <t>Historikogeōgraphika</t>
-  </si>
-  <si>
-    <t>Kordoses</t>
-  </si>
-  <si>
-    <t>Ioannina</t>
-  </si>
-  <si>
-    <t>1.1986 -</t>
-  </si>
-  <si>
-    <t>1269645-6</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>Uppsala</t>
-  </si>
-  <si>
-    <t>0281-8930</t>
-  </si>
-  <si>
-    <t>1361537-3</t>
-  </si>
-  <si>
-    <t>1.1983 - 8.1990</t>
-  </si>
-  <si>
-    <t>280421-9</t>
-  </si>
-  <si>
-    <t>1105-0772</t>
-  </si>
-  <si>
-    <t>1;6,15;5,1</t>
-  </si>
-  <si>
-    <t>1.1969 -</t>
-  </si>
-  <si>
-    <t>16;Re 13</t>
-  </si>
-  <si>
-    <t>Thēsaurismata</t>
-  </si>
-  <si>
-    <t>ita;gre</t>
-  </si>
-  <si>
-    <t>1108-3980</t>
-  </si>
-  <si>
-    <t>1.1962-</t>
-  </si>
-  <si>
-    <t>1286258-7</t>
-  </si>
-  <si>
-    <t>Heōa kai hesperia</t>
-  </si>
-  <si>
-    <t>EESMNED</t>
-  </si>
-  <si>
-    <t>1106-2614</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>1.1993 -</t>
-  </si>
-  <si>
-    <t>301319-4</t>
-  </si>
-  <si>
-    <t>Ayasofya  Müzesi yıllığı</t>
-  </si>
-  <si>
-    <t>İstanbul</t>
-  </si>
-  <si>
-    <t>060;890;700</t>
-  </si>
-  <si>
-    <t>FID-NAHOST-DE-3;6,15;6,23</t>
-  </si>
-  <si>
-    <t>Nr. 1.1959 - 8.1969; 9.1983 -</t>
-  </si>
-  <si>
-    <t>2026586-4</t>
-  </si>
-  <si>
-    <t>Ricerche di egittologia e di antichità copte</t>
-  </si>
-  <si>
-    <t>Ed. La Mandragora</t>
-  </si>
-  <si>
-    <t>Imola</t>
-  </si>
-  <si>
-    <t>1000880-9</t>
-  </si>
-  <si>
-    <t>1.1999 - 13.2013; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2047124-5</t>
-  </si>
-  <si>
-    <t>Pričernomorʹe v srednie veka</t>
-  </si>
-  <si>
-    <t>Izdat. Aletejja</t>
-  </si>
-  <si>
-    <t>Sankt-Peterburg</t>
-  </si>
-  <si>
-    <t>6,26;6,15;FID-ALT-DE-12</t>
-  </si>
-  <si>
-    <t>[1].1991; 2.1995 -</t>
-  </si>
-  <si>
-    <t>2052410-9</t>
-  </si>
-  <si>
-    <t>Medioevo greco</t>
-  </si>
-  <si>
-    <t>Ed. dell'Orso</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>1593-456X</t>
-  </si>
-  <si>
-    <t>0.2000; 1.2001 -</t>
-  </si>
-  <si>
-    <t>1;19;B 4</t>
-  </si>
-  <si>
-    <t>2432071-7</t>
-  </si>
-  <si>
-    <t>Sonderheft</t>
-  </si>
-  <si>
-    <t>Dt. Arbeitsgemeinschaft zur Förderung Byzantinischer Studien</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>2008 -</t>
-  </si>
-  <si>
-    <t>2056932-4</t>
-  </si>
-  <si>
-    <t>Göttinger Beiträge zur byzantinischen und neugriechischen Philologie</t>
-  </si>
-  <si>
-    <t>Peust &amp; Gutschmidt</t>
-  </si>
-  <si>
-    <t>Göttingen</t>
-  </si>
-  <si>
-    <t>1617-0423</t>
-  </si>
-  <si>
-    <t>H. 1.2001 - 6/7.2006/07; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2061306-4</t>
-  </si>
-  <si>
-    <t>Peri istorias</t>
-  </si>
-  <si>
-    <t>Kerkyra</t>
-  </si>
-  <si>
-    <t>1107-1559</t>
-  </si>
-  <si>
-    <t>3.2001 nachgewiesen</t>
-  </si>
-  <si>
-    <t>2065434-0</t>
-  </si>
-  <si>
-    <t>datacarrier</t>
-  </si>
-  <si>
-    <t>Byzantinische Zeitschrift, Bibliographie</t>
-  </si>
-  <si>
-    <t>Saur</t>
-  </si>
-  <si>
-    <t>München;Leipzig</t>
-  </si>
-  <si>
-    <t>9,10;6,15</t>
-  </si>
-  <si>
-    <t>Ed. 1=84/93.1991/2000(2001); 2=83/94.1990/2001(2004); 3=83/97.1990/2004(2005); damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1102-674X</t>
-  </si>
-  <si>
-    <t>9.1991 - 29.2011; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2085106-6</t>
-  </si>
-  <si>
-    <t>Moschovia Moschovia</t>
-  </si>
-  <si>
-    <t>Izdat. Indrik</t>
-  </si>
-  <si>
-    <t>rus;gre</t>
-  </si>
-  <si>
-    <t>1.2001 -</t>
-  </si>
-  <si>
-    <t>2468815-0</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Byzantina Symmeikta</t>
-  </si>
-  <si>
-    <t>1791-4884</t>
-  </si>
-  <si>
-    <t>2545299-X</t>
-  </si>
-  <si>
-    <t>18.2008 -</t>
-  </si>
-  <si>
-    <t>http://ejournals.epublishing.ekt.gr/index.php/bz/index;http://www.bibliothek.uni-regensburg.de/ezeit/?2468815</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>8;19;M 347;20;26;29;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;547;703;739;824;573;150;706;Re 13</t>
-  </si>
-  <si>
-    <t>2477149-1</t>
-  </si>
-  <si>
-    <t>b;nl</t>
-  </si>
-  <si>
-    <t>Slovanský Ústav Akademie věd ČR [u.a.];CEEOL</t>
-  </si>
-  <si>
-    <t>Praha;Frankfurt, Main</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 59.1998 -</t>
-  </si>
-  <si>
-    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=265;http://www.lib.cas.cz/casopisy/eng/Byzantinoslavica.htm;http://www.bibliothek.uni-regensburg.de/ezeit/?2477149</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;150;824;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;944;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
-  </si>
-  <si>
-    <t>Acta Byzantina Fennica</t>
-  </si>
-  <si>
-    <t>1458-7017</t>
-  </si>
-  <si>
-    <t>N.S. 1.2002 - 2.2003/04(2005); 3.2010 -</t>
-  </si>
-  <si>
-    <t>2487595-8</t>
-  </si>
-  <si>
-    <t>Konštantínove listy</t>
-  </si>
-  <si>
-    <t>Nitra</t>
-  </si>
-  <si>
-    <t>slo</t>
-  </si>
-  <si>
-    <t>1337-8740</t>
-  </si>
-  <si>
-    <t>6,15;7,41</t>
-  </si>
-  <si>
-    <t>1.2008 - 9.2016[?]</t>
-  </si>
-  <si>
-    <t>2193605-5</t>
-  </si>
-  <si>
-    <t>To ergo tu Hellēniku Institutu Byzantinōn kai Metabyzantinōn Spudōn Benetias</t>
-  </si>
-  <si>
-    <t>Benetia</t>
-  </si>
-  <si>
-    <t>000;870</t>
-  </si>
-  <si>
-    <t>2001/02(2002) - 2002/03(2003) nachgewiesen</t>
-  </si>
-  <si>
-    <t>2493502-5</t>
-  </si>
-  <si>
-    <t>Scrinium</t>
-  </si>
-  <si>
-    <t>Brill;Byzantinorossica;Axiōma;Gorgias Press</t>
-  </si>
-  <si>
-    <t>Leiden;Saint-Pétersbourg;St. Peterburg;Piscataway, NJ</t>
-  </si>
-  <si>
-    <t>1817-7565</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>Tome 1-</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2493502;https://brill.com/scri;http://scrinium.ru/about</t>
-  </si>
-  <si>
-    <t>2113747-X</t>
-  </si>
-  <si>
-    <t>Grecija i slavjanskij mir</t>
-  </si>
-  <si>
-    <t>Simferopol'</t>
-  </si>
-  <si>
-    <t>910;940;400;300</t>
-  </si>
-  <si>
-    <t>1.2002[?]</t>
-  </si>
-  <si>
-    <t>2208498-8</t>
-  </si>
-  <si>
-    <t>Néa Rhóme</t>
-  </si>
-  <si>
-    <t>Università degli Studi di Roma Tor Vergata</t>
-  </si>
-  <si>
-    <t>ita;eng;fre</t>
-  </si>
-  <si>
-    <t>1970-2345</t>
-  </si>
-  <si>
-    <t>930;700</t>
-  </si>
-  <si>
-    <t>1.2004 -</t>
-  </si>
-  <si>
-    <t>16;19;20</t>
-  </si>
-  <si>
-    <t>1425876-6</t>
-  </si>
-  <si>
-    <t>Mitteilungen zur spätantiken Archäologie und byzantinischen Kunstgeschichte</t>
-  </si>
-  <si>
-    <t>Reichert</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>1434-7091</t>
-  </si>
-  <si>
-    <t>930;940;700</t>
-  </si>
-  <si>
-    <t>9,10;6,12;6,15</t>
-  </si>
-  <si>
-    <t>1.1998 -</t>
-  </si>
-  <si>
-    <t>1a;16;43</t>
-  </si>
-  <si>
-    <t>2213674-5</t>
-  </si>
-  <si>
-    <t>Basilissa</t>
-  </si>
-  <si>
-    <t>Belfast Byzantine Enterprises</t>
-  </si>
-  <si>
-    <t>Belfast</t>
-  </si>
-  <si>
-    <t>1746-4714</t>
-  </si>
-  <si>
-    <t>1.2004; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1447697-6</t>
-  </si>
-  <si>
-    <t>Bibliographie de l'art byzantin et postbyzantin</t>
-  </si>
-  <si>
-    <t>Centre de Recherches de l'Art Byzantin et Postbyzantin</t>
-  </si>
-  <si>
-    <t>1945/69(1970) -</t>
-  </si>
-  <si>
-    <t>1449239-8</t>
-  </si>
-  <si>
-    <t>Acta patristica et byzantina</t>
-  </si>
-  <si>
-    <t>Unisa Press</t>
-  </si>
-  <si>
-    <t>Pretoria</t>
-  </si>
-  <si>
-    <t>1022-6486</t>
-  </si>
-  <si>
-    <t>1;6,15</t>
-  </si>
-  <si>
-    <t>2680018-4</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2.1991 - 21.2010</t>
-  </si>
-  <si>
-    <t>1792-0450</t>
-  </si>
-  <si>
-    <t>18.2008-20 (2010)</t>
-  </si>
-  <si>
-    <t>2234826-8</t>
-  </si>
-  <si>
-    <t>Scrinium: journal of patrology and critical hagiography</t>
-  </si>
-  <si>
-    <t>Brill;Byzantinorossica;Gorgias Press</t>
-  </si>
-  <si>
-    <t>Leiden;Boston;Saint-Pétersbourg;Piscataway, NJ</t>
-  </si>
-  <si>
-    <t>1817-7530</t>
-  </si>
-  <si>
-    <t>1.2005 -</t>
-  </si>
-  <si>
-    <t>1.1966 - 17.2005</t>
-  </si>
-  <si>
-    <t>http://www.byzsym.org/;http://www.bibliothek.uni-regensburg.de/ezeit/?2545299</t>
-  </si>
-  <si>
-    <t>2238024-3</t>
-  </si>
-  <si>
-    <t>b;nk;nl</t>
-  </si>
-  <si>
-    <t>Cambridge University Press;Maney</t>
-  </si>
-  <si>
-    <t>Cambridge;Leeds [u.a.]</t>
-  </si>
-  <si>
-    <t>1749-625X</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2238024;http://www.cambridge.org/core/product/identifier/BYZ/type/JOURNAL;http://www.cambridge.org/core/product/identifier/BYZ/type/JOURNAL;https://www.tandfonline.com/loi/ybyz20</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;14;15;15/292;16;18;19;20;21;24;25;26;27;28;29;31;84;89;90;91;93;95;100;105;180;Mh 39;289;Sa 18;291;352;355;384;473;517;521;547;703;705;739;Hil 2;Ma 9;Lün 4;Ch 1;841;634;354;D 120;706;F 197;960/3;1866;Re 13</t>
-  </si>
-  <si>
-    <t>2246126-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byzantinoslovaca </t>
-  </si>
-  <si>
-    <t>Univ. Komenského</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>slo;cze</t>
-  </si>
-  <si>
-    <t>1.2006 -</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>2589907-7</t>
-  </si>
-  <si>
-    <t>Meletēmata Ēmathias</t>
-  </si>
-  <si>
-    <t>Stamulēs</t>
-  </si>
-  <si>
-    <t>Beroia</t>
-  </si>
-  <si>
-    <t>1.2009(2010),1; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2017569-3</t>
-  </si>
-  <si>
-    <t>Bizantinistica</t>
-  </si>
-  <si>
-    <t>Fondazione Centro Italiano di Studi sull'Alto Medioevo;CISAM</t>
-  </si>
-  <si>
-    <t>Spoleto</t>
-  </si>
-  <si>
-    <t>1124-3953</t>
-  </si>
-  <si>
-    <t>913373-2</t>
-  </si>
-  <si>
-    <t>2.Ser. 1.1999 -</t>
-  </si>
-  <si>
-    <t>1;16</t>
-  </si>
-  <si>
-    <t>2617357-8</t>
-  </si>
-  <si>
-    <t>Ankyra</t>
-  </si>
-  <si>
-    <t>Andros</t>
-  </si>
-  <si>
-    <t>1109-1681</t>
-  </si>
-  <si>
-    <t>930;940</t>
-  </si>
-  <si>
-    <t>6,12;6,15;6,16</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 3.2010 -</t>
-  </si>
-  <si>
-    <t>2632828-8</t>
-  </si>
-  <si>
-    <t>Chora</t>
-  </si>
-  <si>
-    <t>Ed. Polirom</t>
-  </si>
-  <si>
-    <t>Paris;Iași</t>
-  </si>
-  <si>
-    <t>eng;mul</t>
-  </si>
-  <si>
-    <t>2162-6529</t>
-  </si>
-  <si>
-    <t>FID-PHILOS-DE-12;6,12;6,15;FID-ALT-DE-12;1</t>
-  </si>
-  <si>
-    <t>1.2003 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2632828;http://www.revuechora.com/;https://www.ceeol.com/search/journal-detail?id=1119;https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;https://www.pdcnet.org/chora</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;1046;898;1050;155;355;37;384;70;473;517;521;547;703;705;739;824;150;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
-  </si>
-  <si>
-    <t>2646710-0</t>
-  </si>
-  <si>
-    <t>Bulgaria mediaevalis</t>
-  </si>
-  <si>
-    <t>Bulgarian Historical Heritage Foundation</t>
-  </si>
-  <si>
-    <t>bul;eng;fre;ger</t>
-  </si>
-  <si>
-    <t>1314-2941</t>
-  </si>
-  <si>
-    <t>1.2010-</t>
-  </si>
-  <si>
-    <t>2863831-1</t>
-  </si>
-  <si>
-    <t>1 (2010)-</t>
-  </si>
-  <si>
-    <t>https://nl.zugang.nationallizenzen.de/han/3ca6f472-81ae-ddf1-00e9-37a0f7f930d6;http://www.ceeol.com/search/journal-detail?id=1331;https://bibliophilia.eu/middle-ages-bulgaria-mediaevalis;http://www.bibliothek.uni-regensburg.de/ezeit/?2863831</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;15;15/292;16;Ds 114;18;M 352;19;862;863;20;21;24;Ofb 1;Frei 129;25;26;27;28;29;946;31;43;45;83;84;89;90;91;93;95;100;109;Mh 39;180;Hed 2;289;Sa 16;Sa 18;291;352;355;1046;898;1050;155;37;384;70;473;517;521;547;703;705;739;824;150;830;Ma 9;Lün 4;Ch 1;Ilm 1;Wim 2;841;J 59;546;834;Bre 14;753;972;634;Kon 4;747;958;520;706;F 197;L 189;1373;Mar 1;He 76;Rt 3;Stg 117;Re 13;840;Zi 4</t>
-  </si>
-  <si>
-    <t>Journal of early Christian history</t>
-  </si>
-  <si>
-    <t>Unisa Press;Routledge, Taylor &amp; Francis Group</t>
-  </si>
-  <si>
-    <t>Pretoria;Abingdon, Oxon</t>
-  </si>
-  <si>
-    <t>2222-582X</t>
-  </si>
-  <si>
-    <t>1;6,15;6,12</t>
-  </si>
-  <si>
-    <t>1.2011 -</t>
-  </si>
-  <si>
-    <t>Kn 28</t>
-  </si>
-  <si>
-    <t>2684405-9</t>
-  </si>
-  <si>
-    <t>Boriso-Glebskij sbornik</t>
-  </si>
-  <si>
-    <t>ACHCbyz</t>
-  </si>
-  <si>
-    <t>1.2009 -</t>
-  </si>
-  <si>
-    <t>2690210-2</t>
-  </si>
-  <si>
-    <t>b;nk</t>
-  </si>
-  <si>
-    <t>Peeters;Edouard Champion;Vaillant-Carmanne</t>
-  </si>
-  <si>
-    <t>Leuven;Paris;Liége</t>
-  </si>
-  <si>
-    <t>2294-6209</t>
-  </si>
-  <si>
-    <t>6,15;1;0;FID-ALT-DE-12</t>
-  </si>
-  <si>
-    <t>http://poj.peeters-leuven.be/content.php?url=journal&amp;journal_code=BYZ;http://www.jstor.org/journal/byzantion;http://www.bibliothek.uni-regensburg.de/ezeit/?2690210</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>3;4;7;8;9;14;15;15/292;16;Ds 114;18;210;19;M 352;21;24;Frei 160;25;26;27;28;29;31;43;83;84;89;90;91;93;100;105;180;289;Sa 18;291;352;355;384;473;70;517;547;703;705;824;Hil 2;Ma 9;Lün 4;Ch 1;Wim 2;520;523;751;Zi 4</t>
-  </si>
-  <si>
-    <t>2699347-8</t>
-  </si>
-  <si>
-    <t>2241-2018</t>
-  </si>
-  <si>
-    <t>Tomos 1-</t>
-  </si>
-  <si>
-    <t>http://ejournals.epublishing.ekt.gr/index.php/makedonika;http://www.bibliothek.uni-regensburg.de/ezeit/?2699347</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>8;M 352;210;19;M 347;20;26;29;92;1102;946;90;Mh 39;355;898;155;384;Aug 4;37;473;521;547;703;739;824;573;150;634;706;523;Re 13</t>
-  </si>
-  <si>
-    <t>2705524-3</t>
-  </si>
-  <si>
-    <t>Materialy i issledovanija Otdela Numizmatiki</t>
-  </si>
-  <si>
-    <t>Izdat. Gosudarstvennogo Ėrmitaža</t>
-  </si>
-  <si>
-    <t>930;730</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 2005 -</t>
-  </si>
-  <si>
-    <t>2768339-4</t>
-  </si>
-  <si>
-    <t>Diogenes</t>
-  </si>
-  <si>
-    <t>GEM</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>2054-6696</t>
-  </si>
-  <si>
-    <t>940;950</t>
-  </si>
-  <si>
-    <t>1.2014 -</t>
-  </si>
-  <si>
-    <t>http://gembirmingham.org/gem-activities/online-journal-cfp/diogenes1/;http://www.bibliothek.uni-regensburg.de/ezeit/?2768339</t>
   </si>
   <si>
     <t>8;M 352;210;19;M 347;20;26;29;92;1102;946;90;355;898;155;384;Aug 4;37;473;521;547;703;739;824;573;150;634;706;523;Re 13</t>
@@ -3259,15 +3265,15 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
         <v>123</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3276,49 +3282,49 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>127</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
         <v>128</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>129</v>
       </c>
       <c r="J12" t="s">
         <v>57</v>
       </c>
       <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
         <v>130</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12" t="s">
-        <v>131</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3353,49 +3359,49 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
         <v>133</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>134</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>138</v>
-      </c>
-      <c r="R13" t="s">
-        <v>139</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -3421,7 +3427,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3430,28 +3436,28 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
         <v>141</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>142</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>144</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -3472,7 +3478,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -3490,15 +3496,15 @@
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3507,49 +3513,49 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
         <v>149</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>150</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
         <v>151</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>152</v>
       </c>
       <c r="J15" t="s">
         <v>57</v>
       </c>
       <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
         <v>153</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" t="s">
-        <v>154</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -3570,12 +3576,12 @@
         <v>80</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3584,49 +3590,49 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
       </c>
       <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
         <v>159</v>
       </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>161</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
         <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" t="s">
-        <v>163</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -3652,58 +3658,58 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" t="s">
         <v>165</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>166</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>167</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>168</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
         <v>169</v>
       </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>170</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
         <v>172</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" t="s">
-        <v>173</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -3729,7 +3735,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3738,49 +3744,49 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
         <v>176</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
       </c>
       <c r="J18" t="s">
         <v>45</v>
       </c>
       <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
         <v>178</v>
-      </c>
-      <c r="L18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" t="s">
-        <v>179</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -3801,12 +3807,12 @@
         <v>80</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3815,7 +3821,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
@@ -3833,31 +3839,31 @@
         <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
       </c>
       <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
         <v>184</v>
-      </c>
-      <c r="M19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" t="s">
-        <v>185</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -3883,34 +3889,34 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
         <v>187</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>188</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" t="s">
         <v>189</v>
       </c>
-      <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="s">
         <v>190</v>
       </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>192</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -3934,7 +3940,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -3960,7 +3966,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3969,7 +3975,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
         <v>64</v>
@@ -3978,7 +3984,7 @@
         <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
@@ -4011,7 +4017,7 @@
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -4037,7 +4043,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -4046,13 +4052,13 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>55</v>
@@ -4061,34 +4067,34 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
         <v>199</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
         <v>200</v>
-      </c>
-      <c r="K22" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" t="s">
-        <v>201</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -4114,7 +4120,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -4123,13 +4129,13 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" t="s">
         <v>203</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>204</v>
-      </c>
-      <c r="F23" t="s">
-        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -4144,28 +4150,28 @@
         <v>45</v>
       </c>
       <c r="K23" t="s">
+        <v>205</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
         <v>206</v>
-      </c>
-      <c r="L23" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" t="s">
-        <v>207</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -4191,7 +4197,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4200,13 +4206,13 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -4242,7 +4248,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -4268,7 +4274,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -4277,10 +4283,10 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
         <v>213</v>
-      </c>
-      <c r="E25" t="s">
-        <v>214</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -4292,34 +4298,34 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
         <v>215</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>216</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
         <v>217</v>
-      </c>
-      <c r="L25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>32</v>
-      </c>
-      <c r="R25" t="s">
-        <v>218</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -4340,12 +4346,12 @@
         <v>80</v>
       </c>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4354,28 +4360,28 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" t="s">
         <v>221</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>222</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s">
         <v>223</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>224</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s">
         <v>32</v>
@@ -4390,13 +4396,13 @@
         <v>32</v>
       </c>
       <c r="P26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
         <v>225</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" t="s">
-        <v>226</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -4422,22 +4428,22 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" t="s">
         <v>228</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>229</v>
-      </c>
-      <c r="F27" t="s">
-        <v>230</v>
       </c>
       <c r="G27" t="s">
         <v>75</v>
@@ -4446,55 +4452,55 @@
         <v>32</v>
       </c>
       <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
         <v>231</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>232</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="s">
         <v>233</v>
       </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N27" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>234</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" t="s">
         <v>235</v>
-      </c>
-      <c r="S27" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" t="s">
-        <v>32</v>
-      </c>
-      <c r="W27" t="s">
-        <v>32</v>
-      </c>
-      <c r="X27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -4680,7 +4686,7 @@
         <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
         <v>256</v>
@@ -4902,7 +4908,7 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
@@ -5056,7 +5062,7 @@
         <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" t="s">
         <v>32</v>
@@ -5133,7 +5139,7 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
@@ -5361,10 +5367,10 @@
         <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H39" t="s">
         <v>32</v>
@@ -5397,7 +5403,7 @@
         <v>32</v>
       </c>
       <c r="R39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -5492,7 +5498,7 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s">
         <v>312</v>
@@ -5604,7 +5610,7 @@
         <v>328</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
         <v>329</v>
@@ -5684,7 +5690,7 @@
         <v>336</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s">
         <v>32</v>
@@ -5723,10 +5729,10 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -5740,13 +5746,13 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
@@ -5755,13 +5761,13 @@
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J44" t="s">
         <v>336</v>
       </c>
       <c r="K44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
@@ -5779,10 +5785,10 @@
         <v>331</v>
       </c>
       <c r="Q44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -5808,7 +5814,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -5817,13 +5823,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -5832,13 +5838,13 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J45" t="s">
         <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -5859,7 +5865,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -5877,15 +5883,15 @@
         <v>32</v>
       </c>
       <c r="X45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s">
         <v>26</v>
@@ -5894,25 +5900,25 @@
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
         <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s">
         <v>34</v>
@@ -5936,7 +5942,7 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -5971,13 +5977,13 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
         <v>75</v>
@@ -5986,13 +5992,13 @@
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
@@ -6013,7 +6019,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -6039,7 +6045,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s">
         <v>26</v>
@@ -6048,10 +6054,10 @@
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E48" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -6063,10 +6069,10 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -6090,7 +6096,7 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="S48" t="s">
         <v>32</v>
@@ -6116,19 +6122,19 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F49" t="s">
         <v>74</v>
@@ -6140,7 +6146,7 @@
         <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
         <v>57</v>
@@ -6167,7 +6173,7 @@
         <v>32</v>
       </c>
       <c r="R49" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s">
         <v>32</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
         <v>26</v>
@@ -6202,7 +6208,7 @@
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E50" t="s">
         <v>64</v>
@@ -6211,19 +6217,19 @@
         <v>28</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J50" t="s">
         <v>57</v>
       </c>
       <c r="K50" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -6241,10 +6247,10 @@
         <v>32</v>
       </c>
       <c r="Q50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S50" t="s">
         <v>32</v>
@@ -6270,7 +6276,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
         <v>26</v>
@@ -6279,7 +6285,7 @@
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E51" t="s">
         <v>64</v>
@@ -6297,7 +6303,7 @@
         <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s">
         <v>34</v>
@@ -6321,7 +6327,7 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S51" t="s">
         <v>32</v>
@@ -6347,7 +6353,7 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
@@ -6356,13 +6362,13 @@
         <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E52" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
         <v>32</v>
@@ -6392,13 +6398,13 @@
         <v>32</v>
       </c>
       <c r="P52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q52" t="s">
         <v>32</v>
       </c>
       <c r="R52" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S52" t="s">
         <v>32</v>
@@ -6424,7 +6430,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
@@ -6433,16 +6439,16 @@
         <v>304</v>
       </c>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E53" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
@@ -6454,7 +6460,7 @@
         <v>57</v>
       </c>
       <c r="K53" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
@@ -6501,7 +6507,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -6510,13 +6516,13 @@
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -6525,7 +6531,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
         <v>57</v>
@@ -6552,7 +6558,7 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S54" t="s">
         <v>32</v>
@@ -6578,7 +6584,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
         <v>26</v>
@@ -6587,7 +6593,7 @@
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E55" t="s">
         <v>64</v>
@@ -6596,13 +6602,13 @@
         <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J55" t="s">
         <v>57</v>
@@ -6623,13 +6629,13 @@
         <v>32</v>
       </c>
       <c r="P55" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q55" t="s">
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="S55" t="s">
         <v>32</v>
@@ -6655,7 +6661,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
@@ -6664,25 +6670,25 @@
         <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -6706,7 +6712,7 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -6732,7 +6738,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B57" t="s">
         <v>26</v>
@@ -6741,16 +6747,16 @@
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E57" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
@@ -6759,7 +6765,7 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
         <v>34</v>
@@ -6783,7 +6789,7 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S57" t="s">
         <v>32</v>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
@@ -6818,13 +6824,13 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E58" t="s">
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -6833,7 +6839,7 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J58" t="s">
         <v>57</v>
@@ -6854,13 +6860,13 @@
         <v>32</v>
       </c>
       <c r="P58" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q58" t="s">
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="S58" t="s">
         <v>32</v>
@@ -6886,7 +6892,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s">
         <v>26</v>
@@ -6895,13 +6901,13 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
         <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6910,13 +6916,13 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K59" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
@@ -6937,7 +6943,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -6958,12 +6964,12 @@
         <v>80</v>
       </c>
       <c r="Y59" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -6972,28 +6978,28 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E60" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G60" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J60" t="s">
         <v>57</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -7011,10 +7017,10 @@
         <v>32</v>
       </c>
       <c r="Q60" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -7040,7 +7046,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -7049,25 +7055,25 @@
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F61" t="s">
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K61" t="s">
         <v>46</v>
@@ -7091,7 +7097,7 @@
         <v>32</v>
       </c>
       <c r="R61" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -7126,13 +7132,13 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -7144,10 +7150,10 @@
         <v>32</v>
       </c>
       <c r="J62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K62" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
@@ -7168,7 +7174,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -7194,7 +7200,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -7203,13 +7209,13 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G63" t="s">
         <v>91</v>
@@ -7224,7 +7230,7 @@
         <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L63" t="s">
         <v>32</v>
@@ -7242,10 +7248,10 @@
         <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="R63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="S63" t="s">
         <v>32</v>
@@ -7271,7 +7277,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -7280,13 +7286,13 @@
         <v>27</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E64" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
         <v>108</v>
@@ -7298,10 +7304,10 @@
         <v>32</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L64" t="s">
         <v>32</v>
@@ -7322,7 +7328,7 @@
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S64" t="s">
         <v>32</v>
@@ -7348,7 +7354,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -7357,13 +7363,13 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E65" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -7372,10 +7378,10 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s">
         <v>34</v>
@@ -7399,7 +7405,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -7420,27 +7426,27 @@
         <v>48</v>
       </c>
       <c r="Y65" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G66" t="s">
         <v>75</v>
@@ -7452,7 +7458,7 @@
         <v>32</v>
       </c>
       <c r="J66" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K66" t="s">
         <v>34</v>
@@ -7476,7 +7482,7 @@
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -7502,7 +7508,7 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -7511,13 +7517,13 @@
         <v>244</v>
       </c>
       <c r="D67" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E67" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F67" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G67" t="s">
         <v>75</v>
@@ -7526,13 +7532,13 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J67" t="s">
         <v>57</v>
       </c>
       <c r="K67" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L67" t="s">
         <v>32</v>
@@ -7553,7 +7559,7 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S67" t="s">
         <v>32</v>
@@ -7579,7 +7585,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -7588,25 +7594,25 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E68" t="s">
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K68" t="s">
         <v>34</v>
@@ -7630,7 +7636,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -7656,22 +7662,22 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C69" t="s">
         <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F69" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G69" t="s">
         <v>75</v>
@@ -7686,7 +7692,7 @@
         <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -7707,7 +7713,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -7728,12 +7734,12 @@
         <v>68</v>
       </c>
       <c r="Y69" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
@@ -7742,13 +7748,13 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -7757,7 +7763,7 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J70" t="s">
         <v>57</v>
@@ -7781,10 +7787,10 @@
         <v>32</v>
       </c>
       <c r="Q70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R70" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="S70" t="s">
         <v>32</v>
@@ -7810,7 +7816,7 @@
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -7819,16 +7825,16 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F71" t="s">
         <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H71" t="s">
         <v>32</v>
@@ -7861,7 +7867,7 @@
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -7887,16 +7893,16 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E72" t="s">
         <v>64</v>
@@ -7905,13 +7911,13 @@
         <v>65</v>
       </c>
       <c r="G72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J72" t="s">
         <v>57</v>
@@ -7935,16 +7941,16 @@
         <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="R72" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="S72" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T72" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U72" t="s">
         <v>36</v>
@@ -7956,30 +7962,30 @@
         <v>32</v>
       </c>
       <c r="X72" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y72" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C73" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E73" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F73" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G73" t="s">
         <v>240</v>
@@ -7994,7 +8000,7 @@
         <v>57</v>
       </c>
       <c r="K73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L73" t="s">
         <v>32</v>
@@ -8015,13 +8021,13 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S73" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T73" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="U73" t="s">
         <v>36</v>
@@ -8033,15 +8039,15 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Y73" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -8050,14 +8056,14 @@
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E74" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" t="s">
         <v>222</v>
       </c>
-      <c r="F74" t="s">
-        <v>223</v>
-      </c>
       <c r="G74" t="s">
         <v>32</v>
       </c>
@@ -8065,13 +8071,13 @@
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J74" t="s">
         <v>57</v>
       </c>
       <c r="K74" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L74" t="s">
         <v>32</v>
@@ -8089,10 +8095,10 @@
         <v>32</v>
       </c>
       <c r="Q74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R74" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="S74" t="s">
         <v>32</v>
@@ -8118,7 +8124,7 @@
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8127,28 +8133,28 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E75" t="s">
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G75" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
       </c>
       <c r="I75" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J75" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K75" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -8169,7 +8175,7 @@
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -8195,7 +8201,7 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -8204,13 +8210,13 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E76" t="s">
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -8222,7 +8228,7 @@
         <v>32</v>
       </c>
       <c r="J76" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K76" t="s">
         <v>34</v>
@@ -8246,7 +8252,7 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="S76" t="s">
         <v>32</v>
@@ -8272,22 +8278,22 @@
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E77" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F77" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G77" t="s">
         <v>240</v>
@@ -8296,13 +8302,13 @@
         <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J77" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s">
         <v>32</v>
@@ -8323,13 +8329,13 @@
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S77" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T77" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U77" t="s">
         <v>32</v>
@@ -8349,7 +8355,7 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -8358,16 +8364,16 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E78" t="s">
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G78" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
@@ -8376,7 +8382,7 @@
         <v>32</v>
       </c>
       <c r="J78" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K78" t="s">
         <v>34</v>
@@ -8400,7 +8406,7 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S78" t="s">
         <v>32</v>
@@ -8426,7 +8432,7 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
@@ -8435,28 +8441,28 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E79" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F79" t="s">
         <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H79" t="s">
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J79" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L79" t="s">
         <v>32</v>
@@ -8477,7 +8483,7 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -8498,12 +8504,12 @@
         <v>48</v>
       </c>
       <c r="Y79" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -8512,13 +8518,13 @@
         <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E80" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F80" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G80" t="s">
         <v>75</v>
@@ -8527,13 +8533,13 @@
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J80" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K80" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L80" t="s">
         <v>32</v>
@@ -8554,7 +8560,7 @@
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="S80" t="s">
         <v>32</v>
@@ -8575,12 +8581,12 @@
         <v>48</v>
       </c>
       <c r="Y80" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8589,13 +8595,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E81" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F81" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G81" t="s">
         <v>240</v>
@@ -8604,7 +8610,7 @@
         <v>32</v>
       </c>
       <c r="I81" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J81" t="s">
         <v>57</v>
@@ -8631,7 +8637,7 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -8657,7 +8663,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -8666,13 +8672,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E82" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -8684,10 +8690,10 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L82" t="s">
         <v>32</v>
@@ -8708,7 +8714,7 @@
         <v>32</v>
       </c>
       <c r="R82" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -8734,7 +8740,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -8743,13 +8749,13 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E83" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F83" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G83" t="s">
         <v>240</v>
@@ -8758,13 +8764,13 @@
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J83" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K83" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L83" t="s">
         <v>32</v>
@@ -8779,13 +8785,13 @@
         <v>32</v>
       </c>
       <c r="P83" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q83" t="s">
         <v>32</v>
       </c>
       <c r="R83" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -8811,7 +8817,7 @@
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
@@ -8820,7 +8826,7 @@
         <v>27</v>
       </c>
       <c r="D84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E84" t="s">
         <v>64</v>
@@ -8829,13 +8835,13 @@
         <v>65</v>
       </c>
       <c r="G84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
       </c>
       <c r="I84" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J84" t="s">
         <v>57</v>
@@ -8859,10 +8865,10 @@
         <v>32</v>
       </c>
       <c r="Q84" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R84" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S84" t="s">
         <v>32</v>
@@ -8888,7 +8894,7 @@
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -8897,13 +8903,13 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E85" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F85" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G85" t="s">
         <v>240</v>
@@ -8912,13 +8918,13 @@
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J85" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L85" t="s">
         <v>32</v>
@@ -8939,7 +8945,7 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S85" t="s">
         <v>32</v>
@@ -8965,16 +8971,16 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E86" t="s">
         <v>64</v>
@@ -8983,7 +8989,7 @@
         <v>65</v>
       </c>
       <c r="G86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
@@ -9010,19 +9016,19 @@
         <v>32</v>
       </c>
       <c r="P86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q86" t="s">
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="S86" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="T86" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U86" t="s">
         <v>32</v>
@@ -9042,22 +9048,22 @@
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B87" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C87" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D87" t="s">
         <v>308</v>
       </c>
       <c r="E87" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F87" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G87" t="s">
         <v>240</v>
@@ -9066,7 +9072,7 @@
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J87" t="s">
         <v>57</v>
@@ -9096,10 +9102,10 @@
         <v>242</v>
       </c>
       <c r="S87" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T87" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="U87" t="s">
         <v>36</v>
@@ -9111,15 +9117,15 @@
         <v>32</v>
       </c>
       <c r="X87" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Y87" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -9128,16 +9134,16 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E88" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F88" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G88" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
@@ -9170,7 +9176,7 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="S88" t="s">
         <v>32</v>
@@ -9191,12 +9197,12 @@
         <v>68</v>
       </c>
       <c r="Y88" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -9205,16 +9211,16 @@
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E89" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H89" t="s">
         <v>32</v>
@@ -9223,10 +9229,10 @@
         <v>32</v>
       </c>
       <c r="J89" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s">
         <v>32</v>
@@ -9247,7 +9253,7 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S89" t="s">
         <v>32</v>
@@ -9273,7 +9279,7 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -9282,13 +9288,13 @@
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E90" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F90" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G90" t="s">
         <v>91</v>
@@ -9297,13 +9303,13 @@
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J90" t="s">
         <v>57</v>
       </c>
       <c r="K90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L90" t="s">
         <v>32</v>
@@ -9321,10 +9327,10 @@
         <v>32</v>
       </c>
       <c r="Q90" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="R90" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="S90" t="s">
         <v>32</v>
@@ -9345,12 +9351,12 @@
         <v>80</v>
       </c>
       <c r="Y90" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -9359,28 +9365,28 @@
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E91" t="s">
         <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
       </c>
       <c r="I91" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J91" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K91" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L91" t="s">
         <v>32</v>
@@ -9401,7 +9407,7 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="S91" t="s">
         <v>32</v>
@@ -9427,37 +9433,37 @@
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B92" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E92" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F92" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G92" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
       </c>
       <c r="I92" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J92" t="s">
         <v>319</v>
       </c>
       <c r="K92" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L92" t="s">
         <v>32</v>
@@ -9478,13 +9484,13 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="S92" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="T92" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="U92" t="s">
         <v>36</v>
@@ -9496,15 +9502,15 @@
         <v>32</v>
       </c>
       <c r="X92" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y92" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -9513,28 +9519,28 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E93" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F93" t="s">
         <v>260</v>
       </c>
       <c r="G93" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J93" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K93" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L93" t="s">
         <v>32</v>
@@ -9555,7 +9561,7 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="S93" t="s">
         <v>32</v>
@@ -9576,30 +9582,30 @@
         <v>68</v>
       </c>
       <c r="Y93" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B94" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E94" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F94" t="s">
         <v>260</v>
       </c>
       <c r="G94" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
@@ -9608,10 +9614,10 @@
         <v>32</v>
       </c>
       <c r="J94" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K94" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L94" t="s">
         <v>32</v>
@@ -9632,13 +9638,13 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="S94" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="T94" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="U94" t="s">
         <v>36</v>
@@ -9650,15 +9656,15 @@
         <v>32</v>
       </c>
       <c r="X94" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Y94" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -9667,13 +9673,13 @@
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E95" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F95" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G95" t="s">
         <v>240</v>
@@ -9682,13 +9688,13 @@
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J95" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K95" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="L95" t="s">
         <v>32</v>
@@ -9706,10 +9712,10 @@
         <v>32</v>
       </c>
       <c r="Q95" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R95" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="S95" t="s">
         <v>32</v>
@@ -9730,12 +9736,12 @@
         <v>68</v>
       </c>
       <c r="Y95" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -9744,10 +9750,10 @@
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E96" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F96" t="s">
         <v>99</v>
@@ -9762,7 +9768,7 @@
         <v>32</v>
       </c>
       <c r="J96" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K96" t="s">
         <v>34</v>
@@ -9786,7 +9792,7 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="S96" t="s">
         <v>32</v>
@@ -9812,22 +9818,22 @@
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B97" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C97" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D97" t="s">
         <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F97" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G97" t="s">
         <v>55</v>
@@ -9836,13 +9842,13 @@
         <v>32</v>
       </c>
       <c r="I97" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J97" t="s">
         <v>57</v>
       </c>
       <c r="K97" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L97" t="s">
         <v>32</v>
@@ -9863,10 +9869,10 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="S97" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="T97" t="s">
         <v>32</v>
@@ -9881,45 +9887,45 @@
         <v>32</v>
       </c>
       <c r="X97" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Y97" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H98" t="s">
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J98" t="s">
         <v>45</v>
       </c>
       <c r="K98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L98" t="s">
         <v>32</v>
@@ -9940,13 +9946,13 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="S98" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="T98" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U98" t="s">
         <v>36</v>
@@ -9958,15 +9964,15 @@
         <v>32</v>
       </c>
       <c r="X98" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Y98" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -9975,13 +9981,13 @@
         <v>27</v>
       </c>
       <c r="D99" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E99" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G99" t="s">
         <v>108</v>
@@ -9993,7 +9999,7 @@
         <v>32</v>
       </c>
       <c r="J99" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K99" t="s">
         <v>34</v>
@@ -10017,7 +10023,7 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="S99" t="s">
         <v>32</v>
@@ -10043,22 +10049,22 @@
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B100" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E100" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F100" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G100" t="s">
         <v>240</v>
@@ -10067,10 +10073,10 @@
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J100" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K100" t="s">
         <v>34</v>
@@ -10094,13 +10100,13 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="S100" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="T100" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="U100" t="s">
         <v>36</v>
@@ -10112,15 +10118,15 @@
         <v>32</v>
       </c>
       <c r="X100" t="s">
-        <v>312</v>
+        <v>684</v>
       </c>
       <c r="Y100" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -10129,13 +10135,13 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E101" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G101" t="s">
         <v>108</v>
@@ -10147,10 +10153,10 @@
         <v>32</v>
       </c>
       <c r="J101" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="K101" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L101" t="s">
         <v>32</v>
@@ -10171,7 +10177,7 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="S101" t="s">
         <v>32</v>
